--- a/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Retinopatía de fondo (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Retinopatía de fondo (UPTO).xlsx
@@ -590,67 +590,67 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.26147976782751</v>
+        <v>19.81708126036483</v>
       </c>
       <c r="H2" t="n">
-        <v>10.74224761904761</v>
+        <v>10.40666666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>29.41799999999999</v>
+        <v>28.92666666666667</v>
       </c>
       <c r="J2" t="n">
-        <v>25.30850921845789</v>
+        <v>24.92494195688219</v>
       </c>
       <c r="K2" t="n">
-        <v>16.05787277537278</v>
+        <v>15.79333333333334</v>
       </c>
       <c r="L2" t="n">
-        <v>32.85949581529581</v>
+        <v>32.47333333333333</v>
       </c>
       <c r="M2" t="n">
-        <v>11.16218141715133</v>
+        <v>13.25402985074626</v>
       </c>
       <c r="N2" t="n">
-        <v>7.425298023686498</v>
+        <v>9.593333333333332</v>
       </c>
       <c r="O2" t="n">
-        <v>15.04162318826195</v>
+        <v>16.52</v>
       </c>
       <c r="P2" t="n">
-        <v>6.926133559820491</v>
+        <v>6.981890547263669</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.600680952380953</v>
+        <v>4.566666666666665</v>
       </c>
       <c r="R2" t="n">
-        <v>9.60437822755777</v>
+        <v>10.06</v>
       </c>
       <c r="S2" t="n">
-        <v>3.778699779634159</v>
+        <v>3.609983416252065</v>
       </c>
       <c r="T2" t="n">
-        <v>1.63403232323232</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="U2" t="n">
-        <v>6.194156192364517</v>
+        <v>5.893333333333334</v>
       </c>
       <c r="V2" t="n">
-        <v>1.512490678033961</v>
+        <v>1.496550580431177</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3041714285714285</v>
+        <v>0.2666666666666668</v>
       </c>
       <c r="X2" t="n">
-        <v>3.171456910246615</v>
+        <v>2.906666666666666</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2689407012556259</v>
+        <v>0.2651741293532334</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8798334733893549</v>
+        <v>0.8200000000000004</v>
       </c>
     </row>
     <row r="3">
@@ -682,58 +682,58 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.004980652294085127</v>
+        <v>0.004477611940298507</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0003271604938271605</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04755555555555555</v>
+        <v>0.02</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3163940298507449</v>
+        <v>0.2355223880596999</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06266666666666665</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.139999999999999</v>
+        <v>0.8000000000000004</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2360924478920739</v>
+        <v>0.212039800995024</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.006000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.834135714285713</v>
+        <v>0.7933333333333337</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1721755453501722</v>
+        <v>0.1851409618573795</v>
       </c>
       <c r="T3" t="n">
-        <v>0.004500000000000001</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6140952380952389</v>
+        <v>0.6266666666666667</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1126204418025313</v>
+        <v>0.1189054726368158</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.475563492063492</v>
+        <v>0.4266666666666669</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.02879149170453458</v>
+        <v>0.03094527363184076</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.02098538425883219</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.1999999999999997</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -765,58 +765,58 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02315726920950797</v>
+        <v>0.0190713101160862</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002024130190796857</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03733333333333334</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="M4" t="n">
-        <v>1.172439469320066</v>
+        <v>1.195257048092868</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1839999999999996</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>2.343466666666667</v>
+        <v>2.44</v>
       </c>
       <c r="P4" t="n">
-        <v>1.025090334044064</v>
+        <v>1.025373134328358</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1971428571428568</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="R4" t="n">
-        <v>2.062577777777776</v>
+        <v>2.133333333333334</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8260315091210602</v>
+        <v>0.8367164179104465</v>
       </c>
       <c r="T4" t="n">
-        <v>0.06676825396825396</v>
+        <v>0.1333333333333334</v>
       </c>
       <c r="U4" t="n">
-        <v>1.822866666666668</v>
+        <v>1.853333333333333</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5169673300165823</v>
+        <v>0.5153565505804301</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1.274000000000002</v>
+        <v>1.273333333333333</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1241512064497138</v>
+        <v>0.129983416252073</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.003953769708951393</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.5825714285714293</v>
+        <v>0.5933333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -848,58 +848,58 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2756642721541098</v>
+        <v>0.2414262023217232</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02375555555555556</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8269234009830687</v>
+        <v>0.8000000000000004</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2107406898292268</v>
+        <v>0.2128689883913762</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0005333333333333334</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6754801202536561</v>
+        <v>0.6533333333333335</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2034955145048417</v>
+        <v>0.2075953565505793</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.006500000000000001</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7502370851370844</v>
+        <v>0.7466666666666671</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1421217758081673</v>
+        <v>0.1500829187396351</v>
       </c>
       <c r="T5" t="n">
-        <v>0.002666666666666667</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.600095238095239</v>
+        <v>0.6</v>
       </c>
       <c r="V5" t="n">
-        <v>0.09596884696287671</v>
+        <v>0.100563847429519</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0.4225714285714279</v>
+        <v>0.4000000000000002</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.02668114202585882</v>
+        <v>0.03014925373134315</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1999999999999997</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -922,67 +922,67 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.565424875621877</v>
+        <v>2.528424543946919</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7795000000000006</v>
+        <v>0.7266666666666669</v>
       </c>
       <c r="I6" t="n">
-        <v>4.707777777777778</v>
+        <v>4.426666666666667</v>
       </c>
       <c r="J6" t="n">
-        <v>4.212493248321597</v>
+        <v>4.192139303482576</v>
       </c>
       <c r="K6" t="n">
-        <v>1.747341411761488</v>
+        <v>1.753333333333333</v>
       </c>
       <c r="L6" t="n">
-        <v>7.16342567062567</v>
+        <v>7.193333333333331</v>
       </c>
       <c r="M6" t="n">
-        <v>3.506431459226225</v>
+        <v>3.528888888888885</v>
       </c>
       <c r="N6" t="n">
-        <v>1.357152120210944</v>
+        <v>1.273333333333333</v>
       </c>
       <c r="O6" t="n">
-        <v>5.891076190476189</v>
+        <v>5.96</v>
       </c>
       <c r="P6" t="n">
-        <v>2.802824101713646</v>
+        <v>2.81787728026533</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.071960406260406</v>
+        <v>1.146666666666666</v>
       </c>
       <c r="R6" t="n">
-        <v>4.876263095238095</v>
+        <v>4.92</v>
       </c>
       <c r="S6" t="n">
-        <v>2.270208102345407</v>
+        <v>2.18782752902155</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6437650793650782</v>
+        <v>0.62</v>
       </c>
       <c r="U6" t="n">
-        <v>3.887553335063631</v>
+        <v>3.786666666666665</v>
       </c>
       <c r="V6" t="n">
-        <v>1.365489851607761</v>
+        <v>1.319734660033166</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3088417915417917</v>
+        <v>0.2666666666666668</v>
       </c>
       <c r="X6" t="n">
-        <v>2.666150937950936</v>
+        <v>2.58</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.3302594664042416</v>
+        <v>0.3224212271973459</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.8382666666666654</v>
+        <v>0.8000000000000004</v>
       </c>
     </row>
     <row r="7">
@@ -1014,58 +1014,58 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.32209353233829</v>
+        <v>19.90766169154227</v>
       </c>
       <c r="K7" t="n">
-        <v>10.78782222222223</v>
+        <v>10.64666666666667</v>
       </c>
       <c r="L7" t="n">
-        <v>30.9484666666667</v>
+        <v>29.86666666666666</v>
       </c>
       <c r="M7" t="n">
-        <v>25.72757080434758</v>
+        <v>24.10089552238794</v>
       </c>
       <c r="N7" t="n">
-        <v>17.01040129870128</v>
+        <v>15.97333333333334</v>
       </c>
       <c r="O7" t="n">
-        <v>32.73466782106784</v>
+        <v>31.72000000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>11.81060322496739</v>
+        <v>12.78908789386401</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.036765151515151</v>
+        <v>9.48666666666667</v>
       </c>
       <c r="R7" t="n">
-        <v>15.84963284493284</v>
+        <v>16.15999999999999</v>
       </c>
       <c r="S7" t="n">
-        <v>6.375523479477132</v>
+        <v>6.507363184079588</v>
       </c>
       <c r="T7" t="n">
-        <v>4.262066666666663</v>
+        <v>4.206666666666669</v>
       </c>
       <c r="U7" t="n">
-        <v>9.018691684132865</v>
+        <v>9.146666666666665</v>
       </c>
       <c r="V7" t="n">
-        <v>2.626111984091076</v>
+        <v>2.609585406301811</v>
       </c>
       <c r="W7" t="n">
-        <v>1.161333333333334</v>
+        <v>1.093333333333333</v>
       </c>
       <c r="X7" t="n">
-        <v>4.741109997355586</v>
+        <v>4.519999999999999</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.4864570897317154</v>
+        <v>0.4777446102819229</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.353812137862139</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="8">
@@ -1106,46 +1106,46 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>96.19391044776111</v>
+        <v>95.94978441127692</v>
       </c>
       <c r="N8" t="n">
-        <v>92.92400000000008</v>
+        <v>92.53999999999996</v>
       </c>
       <c r="O8" t="n">
-        <v>98.37399999999984</v>
+        <v>98.22666666666672</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5783980099502466</v>
+        <v>0.2860033167495848</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.352</v>
+        <v>0.05999999999999999</v>
       </c>
       <c r="R8" t="n">
-        <v>1.05</v>
+        <v>0.9066666666666665</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04390547263681587</v>
+        <v>0.02053067993366498</v>
       </c>
       <c r="T8" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.13</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="V8" t="n">
-        <v>0.001731343283582088</v>
+        <v>0.001923714759535653</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0001194029850746268</v>
+        <v>6.6334991708126e-05</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -1180,58 +1180,58 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.259236462450381</v>
+        <v>4.307993366500822</v>
       </c>
       <c r="K9" t="n">
-        <v>1.686303766617961</v>
+        <v>1.72</v>
       </c>
       <c r="L9" t="n">
-        <v>7.291882861582861</v>
+        <v>7.346666666666669</v>
       </c>
       <c r="M9" t="n">
-        <v>3.68671156610111</v>
+        <v>3.736119402985065</v>
       </c>
       <c r="N9" t="n">
-        <v>1.32384696610579</v>
+        <v>1.266666666666667</v>
       </c>
       <c r="O9" t="n">
-        <v>6.545624481074484</v>
+        <v>6.653333333333332</v>
       </c>
       <c r="P9" t="n">
-        <v>3.087683807154696</v>
+        <v>3.103482587064669</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.156745021645023</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="R9" t="n">
-        <v>5.412423809523805</v>
+        <v>5.413333333333337</v>
       </c>
       <c r="S9" t="n">
-        <v>2.350613223260972</v>
+        <v>2.373996683250405</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8439899470899462</v>
+        <v>0.8133333333333338</v>
       </c>
       <c r="U9" t="n">
-        <v>4.20751008403361</v>
+        <v>4.200000000000002</v>
       </c>
       <c r="V9" t="n">
-        <v>1.407714288944886</v>
+        <v>1.407429519071308</v>
       </c>
       <c r="W9" t="n">
-        <v>0.3406529026529028</v>
+        <v>0.3466666666666668</v>
       </c>
       <c r="X9" t="n">
-        <v>2.785305005941772</v>
+        <v>2.759999999999998</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.3456792703150902</v>
+        <v>0.3399004975124369</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.064152380952381</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1263,34 +1263,34 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.45137018849948</v>
+        <v>93.74878938640126</v>
       </c>
       <c r="K10" t="n">
-        <v>87.48577460317465</v>
+        <v>87.55333333333333</v>
       </c>
       <c r="L10" t="n">
-        <v>96.83768836348838</v>
+        <v>97.05333333333331</v>
       </c>
       <c r="M10" t="n">
-        <v>2.890340961857369</v>
+        <v>2.631542288557204</v>
       </c>
       <c r="N10" t="n">
-        <v>0.774755555555554</v>
+        <v>0.7133333333333335</v>
       </c>
       <c r="O10" t="n">
-        <v>6.726714285714285</v>
+        <v>6.400000000000002</v>
       </c>
       <c r="P10" t="n">
-        <v>0.007658512990602538</v>
+        <v>0.006998341625207296</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.07996666666666669</v>
+        <v>0.05999999999999999</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0001324330727315801</v>
+        <v>6.6334991708126e-05</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1337,67 +1337,67 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>42.75454726368153</v>
+        <v>42.82497512437804</v>
       </c>
       <c r="H11" t="n">
-        <v>25.19733333333333</v>
+        <v>25.86666666666667</v>
       </c>
       <c r="I11" t="n">
-        <v>58.09033333333331</v>
+        <v>57.99333333333335</v>
       </c>
       <c r="J11" t="n">
-        <v>31.67380204532885</v>
+        <v>31.0396351575455</v>
       </c>
       <c r="K11" t="n">
-        <v>26.6302370370371</v>
+        <v>25.77999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>36.62853073593076</v>
+        <v>35.89999999999998</v>
       </c>
       <c r="M11" t="n">
-        <v>9.819241067390315</v>
+        <v>8.698341625207288</v>
       </c>
       <c r="N11" t="n">
-        <v>5.535340359640359</v>
+        <v>4.073333333333335</v>
       </c>
       <c r="O11" t="n">
-        <v>14.71461854845731</v>
+        <v>14.15333333333333</v>
       </c>
       <c r="P11" t="n">
-        <v>2.680883720287447</v>
+        <v>2.602354892205633</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2945999999999996</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="R11" t="n">
-        <v>6.880351888771145</v>
+        <v>6.606666666666669</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8861208481402498</v>
+        <v>0.8358208955223877</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.841626118326116</v>
+        <v>2.706666666666666</v>
       </c>
       <c r="V11" t="n">
-        <v>0.2113648424543934</v>
+        <v>0.2112106135986717</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.020638095238095</v>
+        <v>0.9933333333333334</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.03319663586827758</v>
+        <v>0.03061359867330007</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.1939999999999996</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -1411,76 +1411,76 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>9.522079601990034</v>
+        <v>8.313134328358212</v>
       </c>
       <c r="E12" t="n">
-        <v>4.655999999999991</v>
+        <v>4.086666666666665</v>
       </c>
       <c r="F12" t="n">
-        <v>14.53400000000001</v>
+        <v>13.19999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>11.73139303482586</v>
+        <v>12.00965174129351</v>
       </c>
       <c r="H12" t="n">
-        <v>5.863533333333334</v>
+        <v>5.906666666666666</v>
       </c>
       <c r="I12" t="n">
-        <v>17.692</v>
+        <v>17.68666666666667</v>
       </c>
       <c r="J12" t="n">
-        <v>8.689357790413004</v>
+        <v>8.828855721393028</v>
       </c>
       <c r="K12" t="n">
-        <v>4.864318985371932</v>
+        <v>4.906666666666666</v>
       </c>
       <c r="L12" t="n">
-        <v>12.74619259259262</v>
+        <v>12.96</v>
       </c>
       <c r="M12" t="n">
-        <v>6.646213313207877</v>
+        <v>6.380796019900487</v>
       </c>
       <c r="N12" t="n">
-        <v>4.006701764601163</v>
+        <v>3.546666666666665</v>
       </c>
       <c r="O12" t="n">
-        <v>8.928668707666732</v>
+        <v>9.459999999999999</v>
       </c>
       <c r="P12" t="n">
-        <v>4.147013493858262</v>
+        <v>4.649519071310106</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.221739796314795</v>
+        <v>2.533333333333333</v>
       </c>
       <c r="R12" t="n">
-        <v>6.708421594951321</v>
+        <v>7.019999999999997</v>
       </c>
       <c r="S12" t="n">
-        <v>2.930089420752229</v>
+        <v>3.155124378109441</v>
       </c>
       <c r="T12" t="n">
-        <v>1.648826455026455</v>
+        <v>1.580000000000001</v>
       </c>
       <c r="U12" t="n">
-        <v>4.475611743811744</v>
+        <v>5.086666666666667</v>
       </c>
       <c r="V12" t="n">
-        <v>1.701598392596898</v>
+        <v>1.692271973466002</v>
       </c>
       <c r="W12" t="n">
-        <v>0.7987523809523808</v>
+        <v>0.7666666666666671</v>
       </c>
       <c r="X12" t="n">
-        <v>2.550447380397381</v>
+        <v>2.799999999999998</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.3488436705362075</v>
+        <v>0.3523714759535647</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.9361885408708936</v>
+        <v>0.9800000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -1503,52 +1503,52 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>94.22944676616909</v>
+        <v>94.19237147595348</v>
       </c>
       <c r="H13" t="n">
-        <v>88.12976666666665</v>
+        <v>87.83333333333334</v>
       </c>
       <c r="I13" t="n">
-        <v>97.66567251637252</v>
+        <v>97.66000000000003</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9159335348270662</v>
+        <v>1.143283582089551</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="L13" t="n">
-        <v>3.51822352941177</v>
+        <v>4.039999999999998</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0156273879458272</v>
+        <v>0.04059701492537307</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2242339636583444</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="P13" t="n">
-        <v>0.001460651531289655</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0115</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="S13" t="n">
-        <v>2.163097555699761e-07</v>
+        <v>0.0003316749585406301</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>9.950248756218869e-05</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1586,61 +1586,61 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>68.89351111111107</v>
+        <v>68.98872305140956</v>
       </c>
       <c r="H14" t="n">
-        <v>49.74419999999997</v>
+        <v>50.42666666666666</v>
       </c>
       <c r="I14" t="n">
-        <v>82.92357777777778</v>
+        <v>82.98</v>
       </c>
       <c r="J14" t="n">
-        <v>22.16464142251687</v>
+        <v>21.48023217247082</v>
       </c>
       <c r="K14" t="n">
-        <v>13.06284444444448</v>
+        <v>12.30666666666666</v>
       </c>
       <c r="L14" t="n">
-        <v>33.11906936026936</v>
+        <v>32.14</v>
       </c>
       <c r="M14" t="n">
-        <v>2.177355465913669</v>
+        <v>2.011343283582079</v>
       </c>
       <c r="N14" t="n">
-        <v>0.07522222222222215</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="O14" t="n">
-        <v>6.636710377294588</v>
+        <v>6.033333333333332</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2752281923714743</v>
+        <v>0.2591708126036468</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.510947619047617</v>
+        <v>1.393333333333334</v>
       </c>
       <c r="S14" t="n">
-        <v>0.04086235489220557</v>
+        <v>0.03960199004975114</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3464840048840043</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="V14" t="n">
-        <v>0.005353727394772166</v>
+        <v>0.005936981757877275</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0.07800000000000004</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.0002821003209062912</v>
+        <v>0.000265339966832504</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -1669,67 +1669,67 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2415577470622237</v>
+        <v>0.2485240464344935</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01566666666666667</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7328121212121214</v>
+        <v>0.7400000000000003</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2296643055369792</v>
+        <v>0.2258043117744601</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7711056187652872</v>
+        <v>0.7600000000000003</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2031570691922986</v>
+        <v>0.2123714759535647</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7006904507384448</v>
+        <v>0.7333333333333337</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1793720648616169</v>
+        <v>0.1861028192371475</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.6002500000000009</v>
+        <v>0.6</v>
       </c>
       <c r="S15" t="n">
-        <v>0.137917918344784</v>
+        <v>0.1453731343283582</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.5260000000000002</v>
+        <v>0.6</v>
       </c>
       <c r="V15" t="n">
-        <v>0.08669984277745471</v>
+        <v>0.09048092868988379</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0.4373333333333329</v>
+        <v>0.4066666666666669</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.02154659076261512</v>
+        <v>0.02941956882255384</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.1999999999999997</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1752,67 +1752,67 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.576013930348245</v>
+        <v>2.54043117744609</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7795000000000006</v>
+        <v>0.7266666666666669</v>
       </c>
       <c r="I16" t="n">
-        <v>4.707777777777779</v>
+        <v>4.433333333333334</v>
       </c>
       <c r="J16" t="n">
-        <v>4.20857450868644</v>
+        <v>4.19568822553896</v>
       </c>
       <c r="K16" t="n">
-        <v>1.633979091293285</v>
+        <v>1.746666666666666</v>
       </c>
       <c r="L16" t="n">
-        <v>7.162410855810855</v>
+        <v>7.186666666666664</v>
       </c>
       <c r="M16" t="n">
-        <v>3.513344631460293</v>
+        <v>3.523847429519066</v>
       </c>
       <c r="N16" t="n">
-        <v>1.28263034568917</v>
+        <v>1.266666666666666</v>
       </c>
       <c r="O16" t="n">
-        <v>5.803097113997111</v>
+        <v>5.906666666666668</v>
       </c>
       <c r="P16" t="n">
-        <v>2.787990531469628</v>
+        <v>2.808656716417901</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.131106132756134</v>
+        <v>1.16</v>
       </c>
       <c r="R16" t="n">
-        <v>4.899963095238095</v>
+        <v>4.926666666666666</v>
       </c>
       <c r="S16" t="n">
-        <v>2.268896659559337</v>
+        <v>2.18537313432835</v>
       </c>
       <c r="T16" t="n">
-        <v>0.6333100529100518</v>
+        <v>0.6133333333333333</v>
       </c>
       <c r="U16" t="n">
-        <v>3.871696192206488</v>
+        <v>3.793333333333331</v>
       </c>
       <c r="V16" t="n">
-        <v>1.37030146023131</v>
+        <v>1.319900497512437</v>
       </c>
       <c r="W16" t="n">
-        <v>0.2843751248751248</v>
+        <v>0.2533333333333335</v>
       </c>
       <c r="X16" t="n">
-        <v>2.661650937950936</v>
+        <v>2.58</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.3296637263418349</v>
+        <v>0.3231177446102811</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.8406666666666655</v>
+        <v>0.8000000000000004</v>
       </c>
     </row>
     <row r="17">
@@ -1826,76 +1826,76 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>8.717253731343263</v>
+        <v>8.558805970149244</v>
       </c>
       <c r="E17" t="n">
-        <v>4.09466666666666</v>
+        <v>4.093333333333335</v>
       </c>
       <c r="F17" t="n">
-        <v>14.03800000000002</v>
+        <v>13.65999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>11.8329751243781</v>
+        <v>12.17499170812602</v>
       </c>
       <c r="H17" t="n">
-        <v>5.798200000000001</v>
+        <v>6.120000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>17.572</v>
+        <v>18.16</v>
       </c>
       <c r="J17" t="n">
-        <v>8.885078653654581</v>
+        <v>8.777976782752898</v>
       </c>
       <c r="K17" t="n">
-        <v>4.883439620292567</v>
+        <v>4.859999999999999</v>
       </c>
       <c r="L17" t="n">
-        <v>12.63068148148151</v>
+        <v>12.63333333333333</v>
       </c>
       <c r="M17" t="n">
-        <v>6.646213313207877</v>
+        <v>6.319668325041444</v>
       </c>
       <c r="N17" t="n">
-        <v>4.035760350459749</v>
+        <v>3.686666666666665</v>
       </c>
       <c r="O17" t="n">
-        <v>8.9469353743334</v>
+        <v>9.479999999999999</v>
       </c>
       <c r="P17" t="n">
-        <v>4.186650116301601</v>
+        <v>4.491708126036477</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.206139796314795</v>
+        <v>2.273333333333334</v>
       </c>
       <c r="R17" t="n">
-        <v>6.716564452094177</v>
+        <v>6.666666666666663</v>
       </c>
       <c r="S17" t="n">
-        <v>2.949383695526816</v>
+        <v>3.094593698175777</v>
       </c>
       <c r="T17" t="n">
-        <v>1.658150264550265</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="U17" t="n">
-        <v>4.475056188256188</v>
+        <v>4.819999999999999</v>
       </c>
       <c r="V17" t="n">
-        <v>1.713211162082802</v>
+        <v>1.678739635157544</v>
       </c>
       <c r="W17" t="n">
-        <v>0.798120634920635</v>
+        <v>0.7466666666666669</v>
       </c>
       <c r="X17" t="n">
-        <v>2.608565456602223</v>
+        <v>2.9</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.3492330569375341</v>
+        <v>0.3404975124378106</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.8985646591970119</v>
+        <v>0.9733333333333333</v>
       </c>
     </row>
     <row r="18">
@@ -1927,58 +1927,58 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01923355444997232</v>
+        <v>0.0190713101160862</v>
       </c>
       <c r="K18" t="n">
-        <v>0.002024130190796857</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.028</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="M18" t="n">
-        <v>1.172434494195688</v>
+        <v>1.195257048092868</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1959999999999996</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="O18" t="n">
-        <v>2.393466666666667</v>
+        <v>2.44</v>
       </c>
       <c r="P18" t="n">
-        <v>1.201179767827527</v>
+        <v>1.025373134328358</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.4919999999999999</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="R18" t="n">
-        <v>2.126999999999997</v>
+        <v>2.133333333333334</v>
       </c>
       <c r="S18" t="n">
-        <v>0.8304950248756208</v>
+        <v>0.8367164179104465</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1031015873015872</v>
+        <v>0.1333333333333334</v>
       </c>
       <c r="U18" t="n">
-        <v>1.823700000000001</v>
+        <v>1.853333333333333</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5184864013266983</v>
+        <v>0.5153565505804301</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1.276000000000002</v>
+        <v>1.273333333333333</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.1293165916449497</v>
+        <v>0.129983416252073</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.01077719298245614</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.5945714285714295</v>
+        <v>0.5933333333333333</v>
       </c>
     </row>
     <row r="19">
@@ -1992,76 +1992,76 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>44.98510447761188</v>
+        <v>44.55986733001654</v>
       </c>
       <c r="E19" t="n">
-        <v>27.55388888888893</v>
+        <v>27.96666666666665</v>
       </c>
       <c r="F19" t="n">
-        <v>58.95199999999994</v>
+        <v>58.42000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>31.28716903577338</v>
+        <v>30.89223880596997</v>
       </c>
       <c r="H19" t="n">
-        <v>26.00199999999998</v>
+        <v>26.01333333333332</v>
       </c>
       <c r="I19" t="n">
-        <v>35.74819321789323</v>
+        <v>35.64666666666665</v>
       </c>
       <c r="J19" t="n">
-        <v>8.300684824204723</v>
+        <v>8.232802653399663</v>
       </c>
       <c r="K19" t="n">
-        <v>3.609740866540868</v>
+        <v>3.519999999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>15.16560925925925</v>
+        <v>14.11333333333334</v>
       </c>
       <c r="M19" t="n">
-        <v>2.562847699692425</v>
+        <v>2.465306799336635</v>
       </c>
       <c r="N19" t="n">
-        <v>0.4615683949865065</v>
+        <v>0.4133333333333334</v>
       </c>
       <c r="O19" t="n">
-        <v>7.295608342378426</v>
+        <v>6.380000000000003</v>
       </c>
       <c r="P19" t="n">
-        <v>0.8518006384439206</v>
+        <v>0.7988723051409602</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>2.996131024531024</v>
+        <v>2.926666666666668</v>
       </c>
       <c r="S19" t="n">
-        <v>0.2824887029498963</v>
+        <v>0.2608291873963508</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.424816666666668</v>
+        <v>1.293333333333333</v>
       </c>
       <c r="V19" t="n">
-        <v>0.07985187159440882</v>
+        <v>0.07930348258706452</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.4889563492063493</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.01087543236199951</v>
+        <v>0.01054726368159203</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.1959999999999996</v>
+        <v>0.1800000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -2075,76 +2075,76 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>2.497204667140485</v>
+        <v>2.491343283582086</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8505820105820091</v>
+        <v>0.8400000000000003</v>
       </c>
       <c r="F20" t="n">
-        <v>4.50868571428571</v>
+        <v>4.400000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>4.14390229157243</v>
+        <v>4.251343283582078</v>
       </c>
       <c r="H20" t="n">
-        <v>1.649869841269841</v>
+        <v>1.746666666666666</v>
       </c>
       <c r="I20" t="n">
-        <v>6.998147186147186</v>
+        <v>7.159999999999997</v>
       </c>
       <c r="J20" t="n">
-        <v>3.381656923636519</v>
+        <v>3.442653399668315</v>
       </c>
       <c r="K20" t="n">
-        <v>1.364182503444269</v>
+        <v>1.273333333333333</v>
       </c>
       <c r="L20" t="n">
-        <v>5.734933429533426</v>
+        <v>5.753333333333334</v>
       </c>
       <c r="M20" t="n">
-        <v>2.948046361101573</v>
+        <v>3.003747927031502</v>
       </c>
       <c r="N20" t="n">
-        <v>1.136742455801279</v>
+        <v>1.14</v>
       </c>
       <c r="O20" t="n">
-        <v>5.07554361888112</v>
+        <v>5.159999999999998</v>
       </c>
       <c r="P20" t="n">
-        <v>2.387588361610735</v>
+        <v>2.385273631840787</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8017333333333319</v>
+        <v>0.8000000000000004</v>
       </c>
       <c r="R20" t="n">
-        <v>4.323447258297255</v>
+        <v>4.320000000000003</v>
       </c>
       <c r="S20" t="n">
-        <v>1.85200283663837</v>
+        <v>1.854162520729685</v>
       </c>
       <c r="T20" t="n">
-        <v>0.4571735449735448</v>
+        <v>0.4200000000000002</v>
       </c>
       <c r="U20" t="n">
-        <v>3.471620390557153</v>
+        <v>3.466666666666666</v>
       </c>
       <c r="V20" t="n">
-        <v>1.094039793277479</v>
+        <v>1.089353233830845</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2338577533577534</v>
+        <v>0.3266666666666668</v>
       </c>
       <c r="X20" t="n">
-        <v>2.150190423302188</v>
+        <v>2.066666666666667</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.2539835708422762</v>
+        <v>0.2506467661691534</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.7470393772893769</v>
+        <v>0.6733333333333335</v>
       </c>
     </row>
     <row r="21">
@@ -2167,67 +2167,67 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.1361217757367</v>
+        <v>1.195522388059701</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1809345987345988</v>
+        <v>0.1933333333333334</v>
       </c>
       <c r="I21" t="n">
-        <v>2.491503174603173</v>
+        <v>2.56</v>
       </c>
       <c r="J21" t="n">
-        <v>1.017146160018838</v>
+        <v>1.01903814262023</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1986666666666662</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="L21" t="n">
-        <v>2.208833228587719</v>
+        <v>2.053333333333334</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9090917099302593</v>
+        <v>0.9162189054726363</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1502285191854554</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="O21" t="n">
-        <v>1.977297423818012</v>
+        <v>2.006666666666667</v>
       </c>
       <c r="P21" t="n">
-        <v>0.7835405662883267</v>
+        <v>0.79273631840796</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.002797250702513861</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.76139898989899</v>
+        <v>1.793333333333333</v>
       </c>
       <c r="S21" t="n">
-        <v>0.6549707436841758</v>
+        <v>0.6555887230514094</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.604823809523807</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4064061457061448</v>
+        <v>0.4060364842454384</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>1.067358585858586</v>
+        <v>1.16</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.1027777909394823</v>
+        <v>0.1061028192371474</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.5252756854256857</v>
+        <v>0.4000000000000002</v>
       </c>
     </row>
     <row r="22">
@@ -2259,34 +2259,34 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>96.18613833095206</v>
+        <v>96.25041459369804</v>
       </c>
       <c r="K22" t="n">
-        <v>93.54293968253978</v>
+        <v>93.52</v>
       </c>
       <c r="L22" t="n">
-        <v>98.20004574314579</v>
+        <v>98.34666666666672</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1111366619284528</v>
+        <v>0.1550912106135984</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6507333333333339</v>
+        <v>0.8266666666666673</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0003595909342177981</v>
+        <v>0.00185737976782752</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.004966666666666667</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="S22" t="n">
-        <v>1.269841269841269e-05</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2324,76 +2324,76 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1506718076285238</v>
+        <v>0.1492537313432833</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003233333333333334</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4939999999999991</v>
+        <v>0.4800000000000003</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2447102486236804</v>
+        <v>0.2311111111111094</v>
       </c>
       <c r="H23" t="n">
-        <v>0.003393939393939395</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7295142857142859</v>
+        <v>0.6933333333333335</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2137663501242424</v>
+        <v>0.2155887230514083</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.7501902748499431</v>
+        <v>0.7600000000000003</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2023039018626977</v>
+        <v>0.1995356550580417</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6475259804392224</v>
+        <v>0.706666666666667</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1608261203853897</v>
+        <v>0.1545605306799335</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.6002500000000009</v>
+        <v>0.6</v>
       </c>
       <c r="S23" t="n">
-        <v>0.1364280229054592</v>
+        <v>0.1328026533996682</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.5536000000000005</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="V23" t="n">
-        <v>0.09047361999526174</v>
+        <v>0.08835820895522382</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.3999999999999993</v>
+        <v>0.4000000000000002</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.02364043614842051</v>
+        <v>0.02215588723051397</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.1999999999999997</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -2416,67 +2416,67 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.572989054726355</v>
+        <v>2.535389718076273</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8135000000000007</v>
+        <v>0.7266666666666669</v>
       </c>
       <c r="I24" t="n">
-        <v>4.71977777777778</v>
+        <v>4.44</v>
       </c>
       <c r="J24" t="n">
-        <v>4.20857450868644</v>
+        <v>4.189220563847417</v>
       </c>
       <c r="K24" t="n">
-        <v>1.640423535737729</v>
+        <v>1.753333333333333</v>
       </c>
       <c r="L24" t="n">
-        <v>7.131034713434714</v>
+        <v>7.166666666666663</v>
       </c>
       <c r="M24" t="n">
-        <v>3.513344631460293</v>
+        <v>3.523515754560526</v>
       </c>
       <c r="N24" t="n">
-        <v>1.284963679022503</v>
+        <v>1.273333333333333</v>
       </c>
       <c r="O24" t="n">
-        <v>5.790386002886001</v>
+        <v>5.906666666666668</v>
       </c>
       <c r="P24" t="n">
-        <v>2.783540282713409</v>
+        <v>2.804278606965164</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.131106132756134</v>
+        <v>1.16</v>
       </c>
       <c r="R24" t="n">
-        <v>4.880463095238095</v>
+        <v>4.92</v>
       </c>
       <c r="S24" t="n">
-        <v>2.268896659559337</v>
+        <v>2.18079601990049</v>
       </c>
       <c r="T24" t="n">
-        <v>0.6050322751322744</v>
+        <v>0.6066666666666667</v>
       </c>
       <c r="U24" t="n">
-        <v>3.852104128714426</v>
+        <v>3.786666666666665</v>
       </c>
       <c r="V24" t="n">
-        <v>1.369983052271111</v>
+        <v>1.318872305140961</v>
       </c>
       <c r="W24" t="n">
-        <v>0.3085776889776889</v>
+        <v>0.2533333333333335</v>
       </c>
       <c r="X24" t="n">
-        <v>2.661650937950936</v>
+        <v>2.58</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.3285943904814542</v>
+        <v>0.3221558872305134</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.8279999999999988</v>
+        <v>0.8000000000000004</v>
       </c>
     </row>
     <row r="25">
@@ -2508,58 +2508,58 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.437017570875763</v>
+        <v>2.364842454394676</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8504730158730147</v>
+        <v>0.8400000000000003</v>
       </c>
       <c r="L25" t="n">
-        <v>4.301414814814817</v>
+        <v>4.166666666666668</v>
       </c>
       <c r="M25" t="n">
-        <v>4.085692039800985</v>
+        <v>4.107164179104473</v>
       </c>
       <c r="N25" t="n">
-        <v>1.788606349206353</v>
+        <v>1.786666666666666</v>
       </c>
       <c r="O25" t="n">
-        <v>6.910166666666663</v>
+        <v>6.946666666666668</v>
       </c>
       <c r="P25" t="n">
-        <v>3.312709804153826</v>
+        <v>3.329850746268649</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.212595815295816</v>
+        <v>1.206666666666667</v>
       </c>
       <c r="R25" t="n">
-        <v>5.979671428571428</v>
+        <v>6.079999999999999</v>
       </c>
       <c r="S25" t="n">
-        <v>2.596837525216618</v>
+        <v>2.602686567164168</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9129100529100524</v>
+        <v>0.8533333333333336</v>
       </c>
       <c r="U25" t="n">
-        <v>4.664865873015875</v>
+        <v>4.626666666666664</v>
       </c>
       <c r="V25" t="n">
-        <v>1.5204140488036</v>
+        <v>1.507031509121061</v>
       </c>
       <c r="W25" t="n">
-        <v>0.3924846486846487</v>
+        <v>0.3666666666666668</v>
       </c>
       <c r="X25" t="n">
-        <v>3.042436391223156</v>
+        <v>2.973333333333333</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.3957413664279326</v>
+        <v>0.3975124378109437</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.002031905023928813</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.06249097744361</v>
+        <v>1.013333333333333</v>
       </c>
     </row>
     <row r="26">
@@ -2582,67 +2582,67 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.088809432690029</v>
+        <v>1.139038142620231</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1603219003219004</v>
+        <v>0.1733333333333334</v>
       </c>
       <c r="I26" t="n">
-        <v>2.402322222222221</v>
+        <v>2.44</v>
       </c>
       <c r="J26" t="n">
-        <v>1.028585379644363</v>
+        <v>1.023814262023217</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1125449735449734</v>
+        <v>0.1733333333333334</v>
       </c>
       <c r="L26" t="n">
-        <v>2.315708331698115</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="M26" t="n">
-        <v>0.9174361385806583</v>
+        <v>0.9394361525704803</v>
       </c>
       <c r="N26" t="n">
-        <v>0.1788772199400385</v>
+        <v>0.1600000000000001</v>
       </c>
       <c r="O26" t="n">
-        <v>2.086931177319411</v>
+        <v>2.026666666666666</v>
       </c>
       <c r="P26" t="n">
-        <v>0.7908897575613981</v>
+        <v>0.7945605306799326</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.005629573934837093</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1.736644601476953</v>
+        <v>1.68</v>
       </c>
       <c r="S26" t="n">
-        <v>0.6646344845038863</v>
+        <v>0.6712437810945261</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0006666666666666668</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.686225974025974</v>
+        <v>1.626666666666667</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4071280125623403</v>
+        <v>0.4103482587064671</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.041914141414142</v>
+        <v>1.04</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.09529562221452753</v>
+        <v>0.0922056384742951</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.4197746159069682</v>
+        <v>0.4000000000000002</v>
       </c>
     </row>
     <row r="27">
@@ -2656,52 +2656,52 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>94.04905823264619</v>
+        <v>94.18616915422872</v>
       </c>
       <c r="E27" t="n">
-        <v>88.32400000000008</v>
+        <v>88.64666666666663</v>
       </c>
       <c r="F27" t="n">
-        <v>97.8751666666667</v>
+        <v>97.94666666666662</v>
       </c>
       <c r="G27" t="n">
-        <v>1.555746434494195</v>
+        <v>1.277180762852404</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2508636363636363</v>
+        <v>0.1</v>
       </c>
       <c r="I27" t="n">
-        <v>4.713857142857144</v>
+        <v>4.273333333333333</v>
       </c>
       <c r="J27" t="n">
-        <v>0.08210446517410212</v>
+        <v>0.02583747927031499</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.4184199162493287</v>
+        <v>0.2200000000000001</v>
       </c>
       <c r="M27" t="n">
-        <v>0.007987941159717295</v>
+        <v>0.0002985074626865667</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0.02143793191231271</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.000552927480007082</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.008000000000000002</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>2.163097555699761e-07</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2757,58 +2757,58 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.49677091526481</v>
+        <v>33.38600331674944</v>
       </c>
       <c r="K28" t="n">
-        <v>19.29684285714285</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="L28" t="n">
-        <v>46.93635238095239</v>
+        <v>46.54666666666667</v>
       </c>
       <c r="M28" t="n">
-        <v>17.20785358256593</v>
+        <v>18.15174129353233</v>
       </c>
       <c r="N28" t="n">
-        <v>11.74669668272903</v>
+        <v>12.07333333333334</v>
       </c>
       <c r="O28" t="n">
-        <v>21.64384008783391</v>
+        <v>23.50666666666665</v>
       </c>
       <c r="P28" t="n">
-        <v>9.222122512617279</v>
+        <v>9.811376451077939</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.66494191919192</v>
+        <v>7.15333333333333</v>
       </c>
       <c r="R28" t="n">
-        <v>11.91673344126578</v>
+        <v>12.57999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>4.914487166189405</v>
+        <v>4.868623548922046</v>
       </c>
       <c r="T28" t="n">
-        <v>2.63799076479077</v>
+        <v>2.793333333333332</v>
       </c>
       <c r="U28" t="n">
-        <v>7.238007328689494</v>
+        <v>7.420000000000003</v>
       </c>
       <c r="V28" t="n">
-        <v>2.038778199191621</v>
+        <v>2.043283582089541</v>
       </c>
       <c r="W28" t="n">
-        <v>0.7320000000000002</v>
+        <v>0.7600000000000003</v>
       </c>
       <c r="X28" t="n">
-        <v>3.922986111111111</v>
+        <v>4.02</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.3406016741688379</v>
+        <v>0.3398009950248754</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.006651587301587</v>
+        <v>1.013333333333333</v>
       </c>
     </row>
     <row r="29">
@@ -2822,76 +2822,76 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2295106135986728</v>
+        <v>0.2395024875621885</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02127460317460318</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7619999999999989</v>
+        <v>0.7600000000000003</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2416782419901811</v>
+        <v>0.2366500829187383</v>
       </c>
       <c r="H29" t="n">
-        <v>0.006333333333333334</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7424476190476191</v>
+        <v>0.7800000000000005</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2002630772219208</v>
+        <v>0.1894527363184074</v>
       </c>
       <c r="K29" t="n">
-        <v>0.001333333333333334</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.6710460650460649</v>
+        <v>0.6266666666666667</v>
       </c>
       <c r="M29" t="n">
-        <v>0.186669779152119</v>
+        <v>0.1722719734660031</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0.6629642976775396</v>
+        <v>0.6266666666666667</v>
       </c>
       <c r="P29" t="n">
-        <v>0.160550884466556</v>
+        <v>0.164311774461028</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0.6002500000000009</v>
+        <v>0.6</v>
       </c>
       <c r="S29" t="n">
-        <v>0.1271360536254302</v>
+        <v>0.1230182421227197</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0.5896000000000008</v>
+        <v>0.5933333333333333</v>
       </c>
       <c r="V29" t="n">
-        <v>0.08608617626154937</v>
+        <v>0.08464344941956875</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0.3999999999999993</v>
+        <v>0.4000000000000002</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.02722435004349404</v>
+        <v>0.02925373134328352</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.1999999999999997</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -2914,67 +2914,67 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>13.95562615493958</v>
+        <v>13.92882255389718</v>
       </c>
       <c r="H30" t="n">
-        <v>6.69193333333333</v>
+        <v>6.633333333333336</v>
       </c>
       <c r="I30" t="n">
-        <v>21.36966666666667</v>
+        <v>21.58666666666667</v>
       </c>
       <c r="J30" t="n">
-        <v>10.33409850281737</v>
+        <v>10.29671641791043</v>
       </c>
       <c r="K30" t="n">
-        <v>5.650213035113038</v>
+        <v>5.326666666666666</v>
       </c>
       <c r="L30" t="n">
-        <v>15.36718124098124</v>
+        <v>15.25999999999999</v>
       </c>
       <c r="M30" t="n">
-        <v>8.535269076741708</v>
+        <v>7.488026533996673</v>
       </c>
       <c r="N30" t="n">
-        <v>4.993079817654433</v>
+        <v>4.246666666666668</v>
       </c>
       <c r="O30" t="n">
-        <v>11.61502379028735</v>
+        <v>11.26666666666666</v>
       </c>
       <c r="P30" t="n">
-        <v>5.289655956149977</v>
+        <v>5.301492537313424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.800713528138528</v>
+        <v>2.92</v>
       </c>
       <c r="R30" t="n">
-        <v>7.83494270575299</v>
+        <v>8.080000000000002</v>
       </c>
       <c r="S30" t="n">
-        <v>3.394663248938841</v>
+        <v>3.652603648424538</v>
       </c>
       <c r="T30" t="n">
-        <v>1.747745502645504</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="U30" t="n">
-        <v>5.313546186819718</v>
+        <v>5.753333333333334</v>
       </c>
       <c r="V30" t="n">
-        <v>1.909182069450724</v>
+        <v>1.974096185737974</v>
       </c>
       <c r="W30" t="n">
-        <v>0.8529650793650793</v>
+        <v>0.8133333333333337</v>
       </c>
       <c r="X30" t="n">
-        <v>3.20146907553231</v>
+        <v>3.340000000000002</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.4460876468289396</v>
+        <v>0.4354228855721387</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.086452754435108</v>
+        <v>1.133333333333333</v>
       </c>
     </row>
     <row r="31">
@@ -3006,58 +3006,58 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>84.53558363736855</v>
+        <v>84.16308457711436</v>
       </c>
       <c r="K31" t="n">
-        <v>68.62448644688635</v>
+        <v>68.78000000000002</v>
       </c>
       <c r="L31" t="n">
-        <v>93.31830533910539</v>
+        <v>93.39333333333333</v>
       </c>
       <c r="M31" t="n">
-        <v>6.836990002369101</v>
+        <v>7.374660033167482</v>
       </c>
       <c r="N31" t="n">
-        <v>1.614474747474749</v>
+        <v>1.88</v>
       </c>
       <c r="O31" t="n">
-        <v>15.4511161743291</v>
+        <v>15.44666666666667</v>
       </c>
       <c r="P31" t="n">
-        <v>0.7700870646766164</v>
+        <v>0.8220232172470964</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.235914285714285</v>
+        <v>3.359999999999999</v>
       </c>
       <c r="S31" t="n">
-        <v>0.1246895522388059</v>
+        <v>0.1171475953565504</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0.7179999999999993</v>
+        <v>0.7333333333333337</v>
       </c>
       <c r="V31" t="n">
-        <v>0.01233520492774223</v>
+        <v>0.01257048092868987</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0.2939999999999995</v>
+        <v>0.2066666666666667</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.000424354418384269</v>
+        <v>3.3167495854063e-05</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.002716516034357114</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.03600000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3089,34 +3089,34 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>87.26815226512926</v>
+        <v>87.99711442786057</v>
       </c>
       <c r="K32" t="n">
-        <v>74.56554444444436</v>
+        <v>75.70666666666668</v>
       </c>
       <c r="L32" t="n">
-        <v>94.4406346838347</v>
+        <v>94.49999999999999</v>
       </c>
       <c r="M32" t="n">
-        <v>8.239229850746254</v>
+        <v>7.4135655058043</v>
       </c>
       <c r="N32" t="n">
-        <v>3.322492063492062</v>
+        <v>2.786666666666668</v>
       </c>
       <c r="O32" t="n">
-        <v>17.79445</v>
+        <v>16.28666666666666</v>
       </c>
       <c r="P32" t="n">
-        <v>0.1474418621179813</v>
+        <v>0.1140298507462686</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0.9036666666666663</v>
+        <v>0.7266666666666668</v>
       </c>
       <c r="S32" t="n">
-        <v>0.004443875858801228</v>
+        <v>0.0026865671641791</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0.0003184079601990036</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.65339966832504e-05</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
@@ -3163,61 +3163,61 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>69.09625737976779</v>
+        <v>69.31200663349912</v>
       </c>
       <c r="H33" t="n">
-        <v>49.71219999999997</v>
+        <v>51.05999999999999</v>
       </c>
       <c r="I33" t="n">
-        <v>82.97157777777777</v>
+        <v>82.98000000000002</v>
       </c>
       <c r="J33" t="n">
-        <v>22.20761654689503</v>
+        <v>21.32636815920382</v>
       </c>
       <c r="K33" t="n">
-        <v>13.06417777777781</v>
+        <v>12.24666666666666</v>
       </c>
       <c r="L33" t="n">
-        <v>33.31473602693602</v>
+        <v>31.88666666666667</v>
       </c>
       <c r="M33" t="n">
-        <v>2.168065250324948</v>
+        <v>1.974825870646758</v>
       </c>
       <c r="N33" t="n">
-        <v>0.057</v>
+        <v>0.05999999999999999</v>
       </c>
       <c r="O33" t="n">
-        <v>6.620710377294586</v>
+        <v>5.906666666666667</v>
       </c>
       <c r="P33" t="n">
-        <v>0.2713276948590366</v>
+        <v>0.2503482587064661</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.51108095238095</v>
+        <v>1.373333333333334</v>
       </c>
       <c r="S33" t="n">
-        <v>0.0398789386401326</v>
+        <v>0.03800995024875613</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0.3443728937728933</v>
+        <v>0.3266666666666668</v>
       </c>
       <c r="V33" t="n">
-        <v>0.00538274895364447</v>
+        <v>0.005737976782752894</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.04600000000000001</v>
+        <v>0.05999999999999999</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.0004021006080707576</v>
+        <v>0.000431177446102819</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
@@ -3237,76 +3237,76 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>32.32943283582084</v>
+        <v>31.972470978441</v>
       </c>
       <c r="E34" t="n">
-        <v>18.9773333333333</v>
+        <v>18.57333333333333</v>
       </c>
       <c r="F34" t="n">
-        <v>46.02399999999999</v>
+        <v>45.29333333333334</v>
       </c>
       <c r="G34" t="n">
-        <v>18.62427694859036</v>
+        <v>18.3151575456053</v>
       </c>
       <c r="H34" t="n">
-        <v>12.94866666666667</v>
+        <v>12.64</v>
       </c>
       <c r="I34" t="n">
-        <v>23.4615492063492</v>
+        <v>23.27333333333333</v>
       </c>
       <c r="J34" t="n">
-        <v>9.807274543827271</v>
+        <v>9.990912106135976</v>
       </c>
       <c r="K34" t="n">
-        <v>7.22279041394337</v>
+        <v>7.266666666666665</v>
       </c>
       <c r="L34" t="n">
-        <v>11.84823644503645</v>
+        <v>12.64</v>
       </c>
       <c r="M34" t="n">
-        <v>6.058335850315356</v>
+        <v>5.473764510779424</v>
       </c>
       <c r="N34" t="n">
-        <v>3.889552471760076</v>
+        <v>2.953333333333333</v>
       </c>
       <c r="O34" t="n">
-        <v>8.309116836164371</v>
+        <v>8.133333333333335</v>
       </c>
       <c r="P34" t="n">
-        <v>3.44728274439766</v>
+        <v>3.128656716417902</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.479198401598402</v>
+        <v>1.26</v>
       </c>
       <c r="R34" t="n">
-        <v>5.820950732686645</v>
+        <v>5.539999999999998</v>
       </c>
       <c r="S34" t="n">
-        <v>1.985309736903771</v>
+        <v>1.654195688225538</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3587031746031746</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="U34" t="n">
-        <v>3.920257140898317</v>
+        <v>3.466666666666668</v>
       </c>
       <c r="V34" t="n">
-        <v>0.7105772565742712</v>
+        <v>0.7140298507462679</v>
       </c>
       <c r="W34" t="n">
-        <v>0.07958412698412701</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="X34" t="n">
-        <v>2.198956754193519</v>
+        <v>1.820000000000001</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.1299478006791441</v>
+        <v>0.1328358208955223</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.5679134920634916</v>
+        <v>0.5133333333333334</v>
       </c>
     </row>
     <row r="35">
@@ -3329,67 +3329,67 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.457459377714592</v>
+        <v>4.575456053067984</v>
       </c>
       <c r="H35" t="n">
-        <v>1.892266666666667</v>
+        <v>1.986666666666667</v>
       </c>
       <c r="I35" t="n">
-        <v>7.577479365079366</v>
+        <v>7.713333333333334</v>
       </c>
       <c r="J35" t="n">
-        <v>3.798055815917996</v>
+        <v>3.802686567164167</v>
       </c>
       <c r="K35" t="n">
-        <v>1.496664972296813</v>
+        <v>1.54</v>
       </c>
       <c r="L35" t="n">
-        <v>6.693150120250118</v>
+        <v>6.606666666666669</v>
       </c>
       <c r="M35" t="n">
-        <v>3.098027209026452</v>
+        <v>3.12862354892204</v>
       </c>
       <c r="N35" t="n">
-        <v>1.287963679022503</v>
+        <v>1.353333333333333</v>
       </c>
       <c r="O35" t="n">
-        <v>5.376029653533601</v>
+        <v>5.28</v>
       </c>
       <c r="P35" t="n">
-        <v>2.520950408519053</v>
+        <v>2.507064676616906</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.9573507936507933</v>
+        <v>0.9666666666666668</v>
       </c>
       <c r="R35" t="n">
-        <v>4.597084559884562</v>
+        <v>4.626666666666666</v>
       </c>
       <c r="S35" t="n">
-        <v>2.003280533355524</v>
+        <v>1.965771144278601</v>
       </c>
       <c r="T35" t="n">
-        <v>0.6319529100529092</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="U35" t="n">
-        <v>3.650605066665361</v>
+        <v>3.653333333333331</v>
       </c>
       <c r="V35" t="n">
-        <v>1.19918177169707</v>
+        <v>1.217943615257047</v>
       </c>
       <c r="W35" t="n">
-        <v>0.2883121212121212</v>
+        <v>0.2133333333333334</v>
       </c>
       <c r="X35" t="n">
-        <v>2.419267460317462</v>
+        <v>2.38</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.2852943919172763</v>
+        <v>0.2875621890547253</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.7851827838827827</v>
+        <v>0.8000000000000004</v>
       </c>
     </row>
     <row r="36">
@@ -3421,58 +3421,58 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>20.71603211719177</v>
+        <v>20.26683250414591</v>
       </c>
       <c r="K36" t="n">
-        <v>10.8144888888889</v>
+        <v>10.55333333333333</v>
       </c>
       <c r="L36" t="n">
-        <v>31.35335555555555</v>
+        <v>30.31333333333334</v>
       </c>
       <c r="M36" t="n">
-        <v>25.6917946849446</v>
+        <v>24.16696517412928</v>
       </c>
       <c r="N36" t="n">
-        <v>16.85711240981239</v>
+        <v>15.60666666666667</v>
       </c>
       <c r="O36" t="n">
-        <v>32.71566782106784</v>
+        <v>31.56666666666666</v>
       </c>
       <c r="P36" t="n">
-        <v>11.81440023989276</v>
+        <v>12.7681592039801</v>
       </c>
       <c r="Q36" t="n">
-        <v>8.952498484848485</v>
+        <v>9.346666666666668</v>
       </c>
       <c r="R36" t="n">
-        <v>15.85763284493285</v>
+        <v>16.22666666666666</v>
       </c>
       <c r="S36" t="n">
-        <v>6.361499433042636</v>
+        <v>6.445107794361511</v>
       </c>
       <c r="T36" t="n">
-        <v>4.097222222222221</v>
+        <v>4.073333333333334</v>
       </c>
       <c r="U36" t="n">
-        <v>9.018691684132865</v>
+        <v>9.159999999999997</v>
       </c>
       <c r="V36" t="n">
-        <v>2.609883128369681</v>
+        <v>2.583416252072955</v>
       </c>
       <c r="W36" t="n">
-        <v>1.078666666666667</v>
+        <v>1.026666666666667</v>
       </c>
       <c r="X36" t="n">
-        <v>4.739109997355587</v>
+        <v>4.466666666666668</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.4853957298643855</v>
+        <v>0.4776782752902149</v>
       </c>
       <c r="Z36" t="n">
         <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>1.37503893883894</v>
+        <v>1.346666666666666</v>
       </c>
     </row>
     <row r="37">
@@ -3486,76 +3486,76 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7597173497591396</v>
+        <v>0.7972470978441116</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07682251082251079</v>
+        <v>0.05999999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>1.668033333333336</v>
+        <v>1.726666666666666</v>
       </c>
       <c r="G37" t="n">
-        <v>1.107814534166772</v>
+        <v>1.135489220563846</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1734457098457099</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>2.272322943722943</v>
+        <v>2.32</v>
       </c>
       <c r="J37" t="n">
-        <v>1.011623587695271</v>
+        <v>1.026036484245438</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1999999999999995</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="L37" t="n">
-        <v>2.197152997707488</v>
+        <v>2.173333333333334</v>
       </c>
       <c r="M37" t="n">
-        <v>0.8623751095228697</v>
+        <v>0.8646766169154222</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1648522325091687</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="O37" t="n">
-        <v>1.930647250135485</v>
+        <v>1.806666666666666</v>
       </c>
       <c r="P37" t="n">
-        <v>0.7597041136309783</v>
+        <v>0.7589054726368148</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.00379725070251386</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.778618843901198</v>
+        <v>1.793333333333332</v>
       </c>
       <c r="S37" t="n">
-        <v>0.6055908907841743</v>
+        <v>0.6071641791044774</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.488</v>
+        <v>1.506666666666667</v>
       </c>
       <c r="V37" t="n">
-        <v>0.3781147595356538</v>
+        <v>0.3794693200663337</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.0065</v>
+        <v>1</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.09332125878543775</v>
+        <v>0.09711442786069648</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.4381215856039381</v>
+        <v>0.5266666666666666</v>
       </c>
     </row>
     <row r="38">
@@ -3569,76 +3569,76 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>67.75406965174125</v>
+        <v>65.09422885572134</v>
       </c>
       <c r="E38" t="n">
-        <v>49.13866666666656</v>
+        <v>46.10000000000002</v>
       </c>
       <c r="F38" t="n">
-        <v>81.59499999999987</v>
+        <v>78.75333333333336</v>
       </c>
       <c r="G38" t="n">
-        <v>22.70664013266992</v>
+        <v>23.61147595356545</v>
       </c>
       <c r="H38" t="n">
-        <v>13.98026666666666</v>
+        <v>14.74</v>
       </c>
       <c r="I38" t="n">
-        <v>34.22024444444444</v>
+        <v>34.03333333333332</v>
       </c>
       <c r="J38" t="n">
-        <v>2.207046029113684</v>
+        <v>2.823615257048081</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1419185185185185</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="L38" t="n">
-        <v>6.81377513227513</v>
+        <v>7.806666666666664</v>
       </c>
       <c r="M38" t="n">
-        <v>0.2681480610506279</v>
+        <v>0.5128026533996671</v>
       </c>
       <c r="N38" t="n">
-        <v>0.02533333333333334</v>
+        <v>0.05999999999999999</v>
       </c>
       <c r="O38" t="n">
-        <v>1.439736544986546</v>
+        <v>1.980000000000001</v>
       </c>
       <c r="P38" t="n">
-        <v>0.04139603224304709</v>
+        <v>0.1388723051409616</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0.4867196235137412</v>
+        <v>0.7933333333333334</v>
       </c>
       <c r="S38" t="n">
-        <v>0.00731288598079642</v>
+        <v>0.03449419568822533</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1605094017094015</v>
+        <v>0.3000000000000001</v>
       </c>
       <c r="V38" t="n">
-        <v>0.0004058470107763111</v>
+        <v>0.007694859038142613</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.026</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>0.000696517412935322</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="39">
@@ -3652,76 +3652,76 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>12.92749253731341</v>
+        <v>12.79751243781094</v>
       </c>
       <c r="E39" t="n">
-        <v>6.47999999999999</v>
+        <v>6.493333333333336</v>
       </c>
       <c r="F39" t="n">
-        <v>19.16000000000002</v>
+        <v>19.42666666666666</v>
       </c>
       <c r="G39" t="n">
-        <v>10.25141293532336</v>
+        <v>10.35840796019899</v>
       </c>
       <c r="H39" t="n">
-        <v>5.389599999999996</v>
+        <v>5.306666666666667</v>
       </c>
       <c r="I39" t="n">
-        <v>15.43277777777777</v>
+        <v>15.27333333333334</v>
       </c>
       <c r="J39" t="n">
-        <v>7.937056471610187</v>
+        <v>7.767927031509112</v>
       </c>
       <c r="K39" t="n">
-        <v>4.567045969498916</v>
+        <v>4.400000000000001</v>
       </c>
       <c r="L39" t="n">
-        <v>11.81273333333335</v>
+        <v>11.56</v>
       </c>
       <c r="M39" t="n">
-        <v>6.058335850315356</v>
+        <v>5.652404643449406</v>
       </c>
       <c r="N39" t="n">
-        <v>3.475880984778989</v>
+        <v>3.033333333333332</v>
       </c>
       <c r="O39" t="n">
-        <v>8.309116836164371</v>
+        <v>8.386666666666661</v>
       </c>
       <c r="P39" t="n">
-        <v>3.780568658511186</v>
+        <v>4.054129353233815</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.124864796314795</v>
+        <v>2.253333333333335</v>
       </c>
       <c r="R39" t="n">
-        <v>5.875150732686645</v>
+        <v>5.986666666666668</v>
       </c>
       <c r="S39" t="n">
-        <v>2.79158190669116</v>
+        <v>2.784742951907118</v>
       </c>
       <c r="T39" t="n">
-        <v>1.307555555555554</v>
+        <v>1.3</v>
       </c>
       <c r="U39" t="n">
-        <v>4.245846260112435</v>
+        <v>4.460000000000003</v>
       </c>
       <c r="V39" t="n">
-        <v>1.477905638474293</v>
+        <v>1.483681592039799</v>
       </c>
       <c r="W39" t="n">
-        <v>0.4919999999999998</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="X39" t="n">
-        <v>2.408230713730715</v>
+        <v>2.673333333333333</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.3421052515201766</v>
+        <v>0.3350912106135981</v>
       </c>
       <c r="Z39" t="n">
         <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.8261627705627693</v>
+        <v>0.826666666666667</v>
       </c>
     </row>
     <row r="40">
@@ -3744,67 +3744,67 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.0196019900497512</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="J40" t="n">
-        <v>1.121965919296237</v>
+        <v>1.088225538971806</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1300943562610228</v>
+        <v>0.1733333333333334</v>
       </c>
       <c r="L40" t="n">
-        <v>2.304218110807894</v>
+        <v>2.153333333333334</v>
       </c>
       <c r="M40" t="n">
-        <v>1.012974459049576</v>
+        <v>1.017114427860697</v>
       </c>
       <c r="N40" t="n">
-        <v>0.1768484264104399</v>
+        <v>0.1933333333333334</v>
       </c>
       <c r="O40" t="n">
-        <v>2.256209609997845</v>
+        <v>2.36</v>
       </c>
       <c r="P40" t="n">
-        <v>0.8706303594001343</v>
+        <v>0.8763184079601979</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.1253390977443608</v>
+        <v>0.04666666666666666</v>
       </c>
       <c r="R40" t="n">
-        <v>1.843726012463629</v>
+        <v>1.826666666666666</v>
       </c>
       <c r="S40" t="n">
-        <v>0.7149987046673597</v>
+        <v>0.7320066334991695</v>
       </c>
       <c r="T40" t="n">
-        <v>0.09094175084175075</v>
+        <v>0.1600000000000001</v>
       </c>
       <c r="U40" t="n">
-        <v>1.802947979797981</v>
+        <v>1.78</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4369908078654338</v>
+        <v>0.4466003316749571</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1.179107625707627</v>
+        <v>1.2</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.1155849630290367</v>
+        <v>0.1092537313432835</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.4225581823405347</v>
+        <v>0.4000000000000002</v>
       </c>
     </row>
     <row r="41">
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1331741293532337</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3845,49 +3845,49 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>32.89094527363171</v>
+        <v>34.5402985074626</v>
       </c>
       <c r="N41" t="n">
-        <v>19.07599999999999</v>
+        <v>20.05333333333334</v>
       </c>
       <c r="O41" t="n">
-        <v>45.96799999999994</v>
+        <v>47.81333333333336</v>
       </c>
       <c r="P41" t="n">
-        <v>17.28325612869718</v>
+        <v>17.4489552238806</v>
       </c>
       <c r="Q41" t="n">
-        <v>11.92713333333334</v>
+        <v>12.16666666666666</v>
       </c>
       <c r="R41" t="n">
-        <v>21.99723492063491</v>
+        <v>22.35333333333334</v>
       </c>
       <c r="S41" t="n">
-        <v>8.338473513413053</v>
+        <v>8.650779436152556</v>
       </c>
       <c r="T41" t="n">
-        <v>5.992000000000003</v>
+        <v>5.973333333333332</v>
       </c>
       <c r="U41" t="n">
-        <v>11.06867067099567</v>
+        <v>11.48</v>
       </c>
       <c r="V41" t="n">
-        <v>3.531073212221707</v>
+        <v>3.43552238805969</v>
       </c>
       <c r="W41" t="n">
-        <v>1.757857142857142</v>
+        <v>1.793333333333333</v>
       </c>
       <c r="X41" t="n">
-        <v>5.637458696858695</v>
+        <v>5.646666666666669</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.6051554634236215</v>
+        <v>0.6020232172470972</v>
       </c>
       <c r="Z41" t="n">
         <v>0</v>
       </c>
       <c r="AA41" t="n">
-        <v>1.519295454545454</v>
+        <v>1.493333333333334</v>
       </c>
     </row>
     <row r="42">
@@ -3910,67 +3910,67 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>62.13664411276941</v>
+        <v>62.73213930348253</v>
       </c>
       <c r="H42" t="n">
-        <v>41.15931111111111</v>
+        <v>42.68</v>
       </c>
       <c r="I42" t="n">
-        <v>77.21840000000002</v>
+        <v>77.99999999999999</v>
       </c>
       <c r="J42" t="n">
-        <v>16.55975603636274</v>
+        <v>16.67880597014925</v>
       </c>
       <c r="K42" t="n">
-        <v>10.93505282865283</v>
+        <v>11.02</v>
       </c>
       <c r="L42" t="n">
-        <v>22.16417858557563</v>
+        <v>22.08666666666667</v>
       </c>
       <c r="M42" t="n">
-        <v>5.367812380847449</v>
+        <v>4.887429519071296</v>
       </c>
       <c r="N42" t="n">
-        <v>1.304350283468396</v>
+        <v>1.506666666666666</v>
       </c>
       <c r="O42" t="n">
-        <v>10.57109305631544</v>
+        <v>9.966666666666667</v>
       </c>
       <c r="P42" t="n">
-        <v>1.493314825224526</v>
+        <v>1.527860696517412</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>4.628650000000002</v>
+        <v>4.726666666666666</v>
       </c>
       <c r="S42" t="n">
-        <v>0.4672990997393973</v>
+        <v>0.4712437810945264</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>1.830803968253968</v>
+        <v>1.886666666666667</v>
       </c>
       <c r="V42" t="n">
-        <v>0.135871807628524</v>
+        <v>0.1376451077943615</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.7919999999999985</v>
+        <v>0.8000000000000004</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.01787700386954117</v>
+        <v>0.01827529021558872</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.1999999999999996</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3993,67 +3993,67 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>13.95562615493958</v>
+        <v>13.92882255389718</v>
       </c>
       <c r="H43" t="n">
-        <v>6.69193333333333</v>
+        <v>6.633333333333336</v>
       </c>
       <c r="I43" t="n">
-        <v>21.36966666666667</v>
+        <v>21.58666666666667</v>
       </c>
       <c r="J43" t="n">
-        <v>10.38734560066148</v>
+        <v>10.29671641791043</v>
       </c>
       <c r="K43" t="n">
-        <v>5.722479701779705</v>
+        <v>5.326666666666666</v>
       </c>
       <c r="L43" t="n">
-        <v>15.40460346320346</v>
+        <v>15.25999999999999</v>
       </c>
       <c r="M43" t="n">
-        <v>8.586922720788555</v>
+        <v>7.488026533996673</v>
       </c>
       <c r="N43" t="n">
-        <v>5.224533735005116</v>
+        <v>4.246666666666668</v>
       </c>
       <c r="O43" t="n">
-        <v>11.61502379028735</v>
+        <v>11.26666666666666</v>
       </c>
       <c r="P43" t="n">
-        <v>5.275749851751334</v>
+        <v>5.301492537313424</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.764677020202019</v>
+        <v>2.92</v>
       </c>
       <c r="R43" t="n">
-        <v>7.83494270575299</v>
+        <v>8.080000000000002</v>
       </c>
       <c r="S43" t="n">
-        <v>3.394663248938841</v>
+        <v>3.652603648424538</v>
       </c>
       <c r="T43" t="n">
-        <v>1.752793121693122</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="U43" t="n">
-        <v>5.313546186819718</v>
+        <v>5.753333333333334</v>
       </c>
       <c r="V43" t="n">
-        <v>1.908843760993012</v>
+        <v>1.974096185737974</v>
       </c>
       <c r="W43" t="n">
-        <v>0.8638222222222222</v>
+        <v>0.8133333333333337</v>
       </c>
       <c r="X43" t="n">
-        <v>3.20146907553231</v>
+        <v>3.340000000000002</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4471740665820261</v>
+        <v>0.4354228855721387</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>1.086217460317461</v>
+        <v>1.133333333333333</v>
       </c>
     </row>
     <row r="44">
@@ -4094,49 +4094,49 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>62.65693532338315</v>
+        <v>62.07167495854056</v>
       </c>
       <c r="N44" t="n">
-        <v>43.42933333333326</v>
+        <v>43.38000000000002</v>
       </c>
       <c r="O44" t="n">
-        <v>77.15000000000008</v>
+        <v>76.41333333333333</v>
       </c>
       <c r="P44" t="n">
-        <v>16.21421067738232</v>
+        <v>16.02358208955222</v>
       </c>
       <c r="Q44" t="n">
-        <v>10.69599999999999</v>
+        <v>10.4</v>
       </c>
       <c r="R44" t="n">
-        <v>21.64581666666667</v>
+        <v>21.55333333333333</v>
       </c>
       <c r="S44" t="n">
-        <v>4.498482006633491</v>
+        <v>4.458043117744598</v>
       </c>
       <c r="T44" t="n">
-        <v>1.305333333333335</v>
+        <v>1.46</v>
       </c>
       <c r="U44" t="n">
-        <v>9.178405555555559</v>
+        <v>8.966666666666665</v>
       </c>
       <c r="V44" t="n">
-        <v>1.046009950248754</v>
+        <v>1.108391376451077</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="X44" t="n">
-        <v>3.206866666666665</v>
+        <v>3.286666666666668</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.1209286898839136</v>
+        <v>0.1356882255389716</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.006216189039718451</v>
+        <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.5880000000000009</v>
+        <v>0.6066666666666667</v>
       </c>
     </row>
     <row r="45">
@@ -4150,76 +4150,76 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>59.251962686567</v>
+        <v>61.63598673300154</v>
       </c>
       <c r="E45" t="n">
-        <v>40.34400000000007</v>
+        <v>41.79999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>75.55800000000005</v>
+        <v>77.63333333333334</v>
       </c>
       <c r="G45" t="n">
-        <v>16.51187728026532</v>
+        <v>17.50524046434494</v>
       </c>
       <c r="H45" t="n">
-        <v>12.29466666666666</v>
+        <v>11.87333333333333</v>
       </c>
       <c r="I45" t="n">
-        <v>22.62397777777778</v>
+        <v>23.19333333333333</v>
       </c>
       <c r="J45" t="n">
-        <v>6.482281277748745</v>
+        <v>5.148258706467648</v>
       </c>
       <c r="K45" t="n">
-        <v>1.931666263366264</v>
+        <v>1.479999999999999</v>
       </c>
       <c r="L45" t="n">
-        <v>10.8069031117031</v>
+        <v>10.08</v>
       </c>
       <c r="M45" t="n">
-        <v>2.345789241980984</v>
+        <v>1.637711442786068</v>
       </c>
       <c r="N45" t="n">
-        <v>0.4445567547748663</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="O45" t="n">
-        <v>6.608764862484452</v>
+        <v>4.719999999999998</v>
       </c>
       <c r="P45" t="n">
-        <v>0.7078904749755485</v>
+        <v>0.5583747927031495</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>2.63581673881674</v>
+        <v>2.386666666666667</v>
       </c>
       <c r="S45" t="n">
-        <v>0.2116439544700732</v>
+        <v>0.1859369817578767</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>1.078883333333333</v>
+        <v>1.02</v>
       </c>
       <c r="V45" t="n">
-        <v>0.06319023927979148</v>
+        <v>0.06490878938640122</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0.5778960317460325</v>
+        <v>0.5866666666666666</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.007520232172470974</v>
+        <v>0.007230514096185734</v>
       </c>
       <c r="Z45" t="n">
         <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.1479999999999998</v>
+        <v>0.1533333333333334</v>
       </c>
     </row>
     <row r="46">
@@ -4251,58 +4251,58 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>67.06409375345476</v>
+        <v>66.92975124378091</v>
       </c>
       <c r="K46" t="n">
-        <v>48.80844517704512</v>
+        <v>48.69333333333336</v>
       </c>
       <c r="L46" t="n">
-        <v>80.8990810004809</v>
+        <v>80.92000000000003</v>
       </c>
       <c r="M46" t="n">
-        <v>22.79013873489682</v>
+        <v>22.78182421227186</v>
       </c>
       <c r="N46" t="n">
-        <v>13.70599894179894</v>
+        <v>13.48666666666667</v>
       </c>
       <c r="O46" t="n">
-        <v>33.40794943944942</v>
+        <v>32.84666666666669</v>
       </c>
       <c r="P46" t="n">
-        <v>2.214421227197337</v>
+        <v>2.151343283582079</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.098</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="R46" t="n">
-        <v>6.795050793650801</v>
+        <v>6.786666666666664</v>
       </c>
       <c r="S46" t="n">
-        <v>0.2581194029850731</v>
+        <v>0.2455389718076272</v>
       </c>
       <c r="T46" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>1.152000000000001</v>
+        <v>1.14</v>
       </c>
       <c r="V46" t="n">
-        <v>0.02808126036484239</v>
+        <v>0.02822553897180758</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.3334999999999995</v>
+        <v>0.3266666666666668</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.0007838111032140887</v>
+        <v>0.0009618573797678277</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.002458940276781356</v>
+        <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -4325,43 +4325,43 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>93.65638959962085</v>
+        <v>93.63389718076282</v>
       </c>
       <c r="H47" t="n">
-        <v>88.05473809523808</v>
+        <v>88.21999999999998</v>
       </c>
       <c r="I47" t="n">
-        <v>96.58632481962482</v>
+        <v>97.28666666666668</v>
       </c>
       <c r="J47" t="n">
-        <v>2.76288454552633</v>
+        <v>2.761094527363182</v>
       </c>
       <c r="K47" t="n">
-        <v>0.6604444444444433</v>
+        <v>0.6199999999999998</v>
       </c>
       <c r="L47" t="n">
-        <v>6.483787301587291</v>
+        <v>6.50666666666667</v>
       </c>
       <c r="M47" t="n">
-        <v>0.01546889763955747</v>
+        <v>0.008258706467661633</v>
       </c>
       <c r="N47" t="n">
-        <v>0.0006666666666666668</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>0.05316446886446886</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0001035328408462735</v>
+        <v>9.950248756218869e-05</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>0.0001666666666666667</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>2.163097555699761e-07</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
@@ -4399,76 +4399,76 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>9.49844776119402</v>
+        <v>8.90610281923715</v>
       </c>
       <c r="E48" t="n">
-        <v>4.652444444444439</v>
+        <v>4.439999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>15.07200000000001</v>
+        <v>14.07999999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>11.73067661691541</v>
+        <v>12.36394693200661</v>
       </c>
       <c r="H48" t="n">
-        <v>5.7742</v>
+        <v>6.226666666666667</v>
       </c>
       <c r="I48" t="n">
-        <v>17.504</v>
+        <v>18.07333333333333</v>
       </c>
       <c r="J48" t="n">
-        <v>8.745466934472708</v>
+        <v>8.92159203980099</v>
       </c>
       <c r="K48" t="n">
-        <v>4.871385652038598</v>
+        <v>5.04</v>
       </c>
       <c r="L48" t="n">
-        <v>12.68379259259261</v>
+        <v>13.05333333333333</v>
       </c>
       <c r="M48" t="n">
-        <v>6.646213313207877</v>
+        <v>6.3804975124378</v>
       </c>
       <c r="N48" t="n">
-        <v>4.017004794904193</v>
+        <v>3.546666666666665</v>
       </c>
       <c r="O48" t="n">
-        <v>8.928668707666732</v>
+        <v>9.433333333333332</v>
       </c>
       <c r="P48" t="n">
-        <v>4.190334693416029</v>
+        <v>4.596285240464336</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.208139796314795</v>
+        <v>2.493333333333333</v>
       </c>
       <c r="R48" t="n">
-        <v>6.721231118760843</v>
+        <v>6.946666666666663</v>
       </c>
       <c r="S48" t="n">
-        <v>2.941463297516866</v>
+        <v>3.10842454394692</v>
       </c>
       <c r="T48" t="n">
-        <v>1.645324867724868</v>
+        <v>1.546666666666668</v>
       </c>
       <c r="U48" t="n">
-        <v>4.472389521589522</v>
+        <v>5.006666666666666</v>
       </c>
       <c r="V48" t="n">
-        <v>1.693834711004858</v>
+        <v>1.660729684908788</v>
       </c>
       <c r="W48" t="n">
-        <v>0.7876761904761906</v>
+        <v>0.7466666666666669</v>
       </c>
       <c r="X48" t="n">
-        <v>2.610422599459366</v>
+        <v>2.786666666666666</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.3493458264234378</v>
+        <v>0.3463349917081252</v>
       </c>
       <c r="Z48" t="n">
         <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.9297885408708936</v>
+        <v>0.9600000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -4500,58 +4500,58 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.6362454502379865</v>
+        <v>0.6583084577114421</v>
       </c>
       <c r="K49" t="n">
-        <v>0.01361111111111111</v>
+        <v>0.02</v>
       </c>
       <c r="L49" t="n">
-        <v>1.415510889110893</v>
+        <v>1.446666666666666</v>
       </c>
       <c r="M49" t="n">
-        <v>1.245211529653321</v>
+        <v>1.130878938640132</v>
       </c>
       <c r="N49" t="n">
-        <v>0.2268666666666664</v>
+        <v>0.1933333333333334</v>
       </c>
       <c r="O49" t="n">
-        <v>2.294200000000001</v>
+        <v>2.366666666666666</v>
       </c>
       <c r="P49" t="n">
-        <v>0.9349772305637966</v>
+        <v>0.9348258706467656</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.1215020126072757</v>
+        <v>0.04666666666666666</v>
       </c>
       <c r="R49" t="n">
-        <v>1.905575579563196</v>
+        <v>1.826666666666666</v>
       </c>
       <c r="S49" t="n">
-        <v>0.7957715825633725</v>
+        <v>0.7937313432835812</v>
       </c>
       <c r="T49" t="n">
-        <v>0.1045365079365078</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="U49" t="n">
-        <v>1.702603174603173</v>
+        <v>1.793333333333333</v>
       </c>
       <c r="V49" t="n">
-        <v>0.4867515675590293</v>
+        <v>0.4820232172470967</v>
       </c>
       <c r="W49" t="n">
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>1.202447619047621</v>
+        <v>1.206666666666667</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.1184719718926624</v>
+        <v>0.1130348258706466</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.002031905023928813</v>
+        <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.4429793223116749</v>
+        <v>0.4133333333333334</v>
       </c>
     </row>
     <row r="50">
@@ -4565,76 +4565,76 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7715408986811958</v>
+        <v>0.7842786069651729</v>
       </c>
       <c r="E50" t="n">
-        <v>0.08436695526695522</v>
+        <v>0.05333333333333333</v>
       </c>
       <c r="F50" t="n">
-        <v>1.703633333333336</v>
+        <v>1.719999999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>1.130791885505318</v>
+        <v>1.138142620232171</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1967025641025641</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="I50" t="n">
-        <v>2.318122943722944</v>
+        <v>2.326666666666667</v>
       </c>
       <c r="J50" t="n">
-        <v>1.010628562819649</v>
+        <v>1.016019900497511</v>
       </c>
       <c r="K50" t="n">
-        <v>0.1986666666666662</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="L50" t="n">
-        <v>2.108374208471268</v>
+        <v>2.180000000000001</v>
       </c>
       <c r="M50" t="n">
-        <v>0.8614469724305535</v>
+        <v>0.8626202321724704</v>
       </c>
       <c r="N50" t="n">
-        <v>0.1240833803087375</v>
+        <v>0.1733333333333334</v>
       </c>
       <c r="O50" t="n">
-        <v>1.90203413155472</v>
+        <v>1.839999999999999</v>
       </c>
       <c r="P50" t="n">
-        <v>0.7577908466326367</v>
+        <v>0.7626533996683239</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.001797250702513861</v>
+        <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>1.777313275613276</v>
+        <v>1.793333333333332</v>
       </c>
       <c r="S50" t="n">
-        <v>0.6127069770196633</v>
+        <v>0.6160530679933663</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>1.504</v>
+        <v>1.513333333333334</v>
       </c>
       <c r="V50" t="n">
-        <v>0.3770988391376445</v>
+        <v>0.3784411276948577</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>1.154000000000001</v>
+        <v>1.026666666666667</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.0990490642027954</v>
+        <v>0.09893864013266988</v>
       </c>
       <c r="Z50" t="n">
         <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.4501893217893214</v>
+        <v>0.5333333333333332</v>
       </c>
     </row>
     <row r="51">
@@ -4666,58 +4666,58 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.002782752902155887</v>
+        <v>0.0048424543946932</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0003271604938271605</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0.04622222222222222</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="M51" t="n">
-        <v>0.3472995024875609</v>
+        <v>0.2357877280265324</v>
       </c>
       <c r="N51" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>0.9179999999999986</v>
+        <v>0.8000000000000004</v>
       </c>
       <c r="P51" t="n">
-        <v>0.2634974940896574</v>
+        <v>0.2116086235489212</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.006000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>0.8321547619047603</v>
+        <v>0.7933333333333337</v>
       </c>
       <c r="S51" t="n">
-        <v>0.1804228643109241</v>
+        <v>0.1857379767827527</v>
       </c>
       <c r="T51" t="n">
-        <v>0.002666666666666667</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>0.6152619047619056</v>
+        <v>0.6266666666666667</v>
       </c>
       <c r="V51" t="n">
-        <v>0.1148255791748328</v>
+        <v>0.1190381426202321</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>0.4410079365079361</v>
+        <v>0.4333333333333335</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.02880399898234691</v>
+        <v>0.03081260364842452</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.004100356455538139</v>
+        <v>0</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.1999999999999997</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="52">
@@ -4758,49 +4758,49 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>84.86102487562174</v>
+        <v>85.46411276948581</v>
       </c>
       <c r="N52" t="n">
-        <v>71.0146666666667</v>
+        <v>71.42000000000002</v>
       </c>
       <c r="O52" t="n">
-        <v>93.68300000000013</v>
+        <v>93.8333333333333</v>
       </c>
       <c r="P52" t="n">
-        <v>6.173285003553662</v>
+        <v>6.152139303482574</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.786</v>
+        <v>1.826666666666667</v>
       </c>
       <c r="R52" t="n">
-        <v>14.34869999999999</v>
+        <v>14.24000000000001</v>
       </c>
       <c r="S52" t="n">
-        <v>0.6686766169154221</v>
+        <v>0.6595688225538968</v>
       </c>
       <c r="T52" t="n">
         <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>2.848</v>
+        <v>2.746666666666667</v>
       </c>
       <c r="V52" t="n">
-        <v>0.07645771144278593</v>
+        <v>0.07320066334991694</v>
       </c>
       <c r="W52" t="n">
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>0.5240000000000007</v>
+        <v>0.5266666666666666</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.002508126036484242</v>
+        <v>0.002719734660033165</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.006216189039718451</v>
+        <v>0</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -4814,76 +4814,76 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>12.21342288557213</v>
+        <v>13.04311774461027</v>
       </c>
       <c r="E53" t="n">
-        <v>6.339111111111112</v>
+        <v>6.693333333333332</v>
       </c>
       <c r="F53" t="n">
-        <v>18.66800000000001</v>
+        <v>19.81999999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>10.40427860696515</v>
+        <v>10.86613598673298</v>
       </c>
       <c r="H53" t="n">
-        <v>5.313599999999996</v>
+        <v>5.639999999999999</v>
       </c>
       <c r="I53" t="n">
-        <v>15.35277777777778</v>
+        <v>15.90666666666667</v>
       </c>
       <c r="J53" t="n">
-        <v>8.079159313845683</v>
+        <v>7.91721393034825</v>
       </c>
       <c r="K53" t="n">
-        <v>4.635290413943363</v>
+        <v>4.673333333333332</v>
       </c>
       <c r="L53" t="n">
-        <v>11.81066666666668</v>
+        <v>11.78</v>
       </c>
       <c r="M53" t="n">
-        <v>6.058335850315356</v>
+        <v>5.718076285240449</v>
       </c>
       <c r="N53" t="n">
-        <v>3.51109512619313</v>
+        <v>3.046666666666666</v>
       </c>
       <c r="O53" t="n">
-        <v>8.327383502831037</v>
+        <v>8.453333333333328</v>
       </c>
       <c r="P53" t="n">
-        <v>3.809219377140263</v>
+        <v>4.03194029850745</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.114264796314795</v>
+        <v>2.193333333333334</v>
       </c>
       <c r="R53" t="n">
-        <v>5.849674542210454</v>
+        <v>5.960000000000002</v>
       </c>
       <c r="S53" t="n">
-        <v>2.813703295893608</v>
+        <v>2.789917081260351</v>
       </c>
       <c r="T53" t="n">
-        <v>1.395066666666668</v>
+        <v>1.359999999999999</v>
       </c>
       <c r="U53" t="n">
-        <v>4.244624037890213</v>
+        <v>4.353333333333335</v>
       </c>
       <c r="V53" t="n">
-        <v>1.497856953328593</v>
+        <v>1.494726368159203</v>
       </c>
       <c r="W53" t="n">
-        <v>0.5640000000000001</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="X53" t="n">
-        <v>2.502303335390101</v>
+        <v>2.74</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.3424415699281367</v>
+        <v>0.3343946932006623</v>
       </c>
       <c r="Z53" t="n">
         <v>0</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.842348484848484</v>
+        <v>0.826666666666667</v>
       </c>
     </row>
     <row r="54">
@@ -4906,67 +4906,67 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2415577470622237</v>
+        <v>0.2483913764510772</v>
       </c>
       <c r="H54" t="n">
-        <v>0.004727272727272728</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7180571428571432</v>
+        <v>0.7466666666666669</v>
       </c>
       <c r="J54" t="n">
-        <v>0.2302794031259574</v>
+        <v>0.2251741293532329</v>
       </c>
       <c r="K54" t="n">
-        <v>0.001333333333333334</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0.7727363879960564</v>
+        <v>0.7600000000000003</v>
       </c>
       <c r="M54" t="n">
-        <v>0.2034479830440923</v>
+        <v>0.2124378109452728</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>0.6634631072013489</v>
+        <v>0.7333333333333337</v>
       </c>
       <c r="P54" t="n">
-        <v>0.1793452939542489</v>
+        <v>0.18636815920398</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>0.6002500000000009</v>
+        <v>0.6</v>
       </c>
       <c r="S54" t="n">
-        <v>0.1398252820863005</v>
+        <v>0.1453067993366501</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>0.6006285714285723</v>
+        <v>0.6</v>
       </c>
       <c r="V54" t="n">
-        <v>0.09200957980659466</v>
+        <v>0.09014925373134317</v>
       </c>
       <c r="W54" t="n">
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>0.4039999999999994</v>
+        <v>0.4000000000000002</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.02608289411282109</v>
+        <v>0.02965174129353228</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.1999999999999997</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -4989,67 +4989,67 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1.112786215442931</v>
+        <v>1.187363184079602</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1667790431790432</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="I55" t="n">
-        <v>2.466703174603173</v>
+        <v>2.52</v>
       </c>
       <c r="J55" t="n">
-        <v>1.018748150068589</v>
+        <v>1.01731343283582</v>
       </c>
       <c r="K55" t="n">
-        <v>0.1999999999999995</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="L55" t="n">
-        <v>2.208968678323168</v>
+        <v>2.160000000000001</v>
       </c>
       <c r="M55" t="n">
-        <v>0.9100198470225755</v>
+        <v>0.8940961857379754</v>
       </c>
       <c r="N55" t="n">
-        <v>0.1545860949430312</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="O55" t="n">
-        <v>2.013910542398777</v>
+        <v>2.013333333333333</v>
       </c>
       <c r="P55" t="n">
-        <v>0.7840060720926384</v>
+        <v>0.7827860696517407</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.004797250702513861</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>1.775685510567864</v>
+        <v>1.793333333333333</v>
       </c>
       <c r="S55" t="n">
-        <v>0.656204574529947</v>
+        <v>0.653466003316749</v>
       </c>
       <c r="T55" t="n">
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>1.604823809523807</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="V55" t="n">
-        <v>0.4051275387409708</v>
+        <v>0.4015588723051403</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>1.045858585858586</v>
+        <v>1.06</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.09689243991681784</v>
+        <v>0.105837479270315</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.4315715856039381</v>
+        <v>0.4000000000000002</v>
       </c>
     </row>
     <row r="56">
@@ -5081,52 +5081,52 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>85.19734812182456</v>
+        <v>85.40334991708113</v>
       </c>
       <c r="K56" t="n">
-        <v>69.70525470085477</v>
+        <v>70.34666666666664</v>
       </c>
       <c r="L56" t="n">
-        <v>93.79284502164509</v>
+        <v>93.85333333333334</v>
       </c>
       <c r="M56" t="n">
-        <v>6.433754513148528</v>
+        <v>6.447694859038124</v>
       </c>
       <c r="N56" t="n">
-        <v>1.781222222222222</v>
+        <v>1.906666666666667</v>
       </c>
       <c r="O56" t="n">
-        <v>15.35721141242435</v>
+        <v>15.13999999999999</v>
       </c>
       <c r="P56" t="n">
-        <v>0.6811293532338293</v>
+        <v>0.6858374792703135</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>2.670880952380952</v>
+        <v>2.653333333333334</v>
       </c>
       <c r="S56" t="n">
-        <v>0.08966915422885573</v>
+        <v>0.08945273631840789</v>
       </c>
       <c r="T56" t="n">
         <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>0.5960000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="V56" t="n">
-        <v>0.01102222222222221</v>
+        <v>0.01087893864013267</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>0.1939999999999996</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.0006513859275053309</v>
+        <v>0.0007628524046434493</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
@@ -5164,34 +5164,34 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>87.26815226512926</v>
+        <v>88.00361525704798</v>
       </c>
       <c r="K57" t="n">
-        <v>74.56421111111102</v>
+        <v>75.73333333333335</v>
       </c>
       <c r="L57" t="n">
-        <v>94.4406346838347</v>
+        <v>94.49999999999999</v>
       </c>
       <c r="M57" t="n">
-        <v>8.111515091210599</v>
+        <v>7.415422885572126</v>
       </c>
       <c r="N57" t="n">
-        <v>3.274492063492062</v>
+        <v>2.786666666666668</v>
       </c>
       <c r="O57" t="n">
-        <v>17.78645000000001</v>
+        <v>16.28666666666666</v>
       </c>
       <c r="P57" t="n">
-        <v>0.1474418621179813</v>
+        <v>0.1138971807628523</v>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>0.9136666666666663</v>
+        <v>0.7266666666666668</v>
       </c>
       <c r="S57" t="n">
-        <v>0.004514960909737024</v>
+        <v>0.0026865671641791</v>
       </c>
       <c r="T57" t="n">
         <v>0</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>0.0003184079601990036</v>
+        <v>0</v>
       </c>
       <c r="W57" t="n">
         <v>0</v>
@@ -5209,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="Y57" t="n">
-        <v>3.98009950248756e-05</v>
+        <v>0</v>
       </c>
       <c r="Z57" t="n">
         <v>0</v>
@@ -5229,76 +5229,76 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7543342651820254</v>
+        <v>0.7710779436152563</v>
       </c>
       <c r="E58" t="n">
-        <v>0.07497065897065895</v>
+        <v>0.05333333333333333</v>
       </c>
       <c r="F58" t="n">
-        <v>1.679700000000003</v>
+        <v>1.719999999999999</v>
       </c>
       <c r="G58" t="n">
-        <v>1.107814534166772</v>
+        <v>1.108457711442786</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1709885669885671</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="I58" t="n">
-        <v>2.268322943722943</v>
+        <v>2.16</v>
       </c>
       <c r="J58" t="n">
-        <v>1.012285358207787</v>
+        <v>1.01021558872305</v>
       </c>
       <c r="K58" t="n">
-        <v>0.1994666666666662</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="L58" t="n">
-        <v>2.209096202650693</v>
+        <v>2.253333333333333</v>
       </c>
       <c r="M58" t="n">
-        <v>0.8630517264382925</v>
+        <v>0.8636152570480924</v>
       </c>
       <c r="N58" t="n">
-        <v>0.1705597213166575</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="O58" t="n">
-        <v>1.964274234262469</v>
+        <v>2.013333333333334</v>
       </c>
       <c r="P58" t="n">
-        <v>0.7651014128491731</v>
+        <v>0.7487893864013255</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.00979725070251386</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>1.790154558186912</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="S58" t="n">
-        <v>0.6077669154228854</v>
+        <v>0.5943615257048088</v>
       </c>
       <c r="T58" t="n">
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>1.438616666666667</v>
+        <v>1.413333333333333</v>
       </c>
       <c r="V58" t="n">
-        <v>0.3698527363184066</v>
+        <v>0.3683582089552231</v>
       </c>
       <c r="W58" t="n">
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>1.0005</v>
+        <v>1</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.101664742222951</v>
+        <v>0.09479270315091207</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.4322503734827258</v>
+        <v>0.4400000000000001</v>
       </c>
     </row>
     <row r="59">
@@ -5330,58 +5330,58 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>62.19781550616328</v>
+        <v>62.52208955223879</v>
       </c>
       <c r="K59" t="n">
-        <v>42.20943724053721</v>
+        <v>43</v>
       </c>
       <c r="L59" t="n">
-        <v>77.17670105820119</v>
+        <v>77.39999999999995</v>
       </c>
       <c r="M59" t="n">
-        <v>16.800217834566</v>
+        <v>16.56447761194029</v>
       </c>
       <c r="N59" t="n">
-        <v>11.20949548022783</v>
+        <v>10.86000000000001</v>
       </c>
       <c r="O59" t="n">
-        <v>21.65705913545296</v>
+        <v>22.21999999999999</v>
       </c>
       <c r="P59" t="n">
-        <v>4.920936279007297</v>
+        <v>4.768656716417905</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.370717460317461</v>
+        <v>1.34</v>
       </c>
       <c r="R59" t="n">
-        <v>10.00266662566824</v>
+        <v>9.940000000000003</v>
       </c>
       <c r="S59" t="n">
-        <v>1.398560862354891</v>
+        <v>1.425970149253731</v>
       </c>
       <c r="T59" t="n">
         <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>4.074278499278497</v>
+        <v>4.080000000000001</v>
       </c>
       <c r="V59" t="n">
-        <v>0.3747562189054719</v>
+        <v>0.373631840796019</v>
       </c>
       <c r="W59" t="n">
         <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>1.643997619047618</v>
+        <v>1.54</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.05295632946379201</v>
+        <v>0.05223880597014911</v>
       </c>
       <c r="Z59" t="n">
         <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.4039999999999992</v>
+        <v>0.4000000000000002</v>
       </c>
     </row>
     <row r="60">
@@ -5395,76 +5395,76 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1780330016583745</v>
+        <v>0.1666666666666664</v>
       </c>
       <c r="E60" t="n">
-        <v>0.01074074074074074</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.605999999999999</v>
+        <v>0.5600000000000002</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2431712768160519</v>
+        <v>0.2325704809286885</v>
       </c>
       <c r="H60" t="n">
-        <v>0.01433333333333334</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.750726406926407</v>
+        <v>0.7133333333333336</v>
       </c>
       <c r="J60" t="n">
-        <v>0.2137708213578182</v>
+        <v>0.2128026533996675</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0.7599542146138828</v>
+        <v>0.7733333333333337</v>
       </c>
       <c r="M60" t="n">
-        <v>0.2019730685605369</v>
+        <v>0.1957213930348248</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>0.7004749745479686</v>
+        <v>0.7400000000000003</v>
       </c>
       <c r="P60" t="n">
-        <v>0.1570538576956486</v>
+        <v>0.1548258706467661</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>0.6002500000000009</v>
+        <v>0.6</v>
       </c>
       <c r="S60" t="n">
-        <v>0.1239494748479821</v>
+        <v>0.126401326699834</v>
       </c>
       <c r="T60" t="n">
         <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>0.4579999999999995</v>
+        <v>0.5133333333333333</v>
       </c>
       <c r="V60" t="n">
-        <v>0.080912876095712</v>
+        <v>0.08500829187396347</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>0.4033333333333327</v>
+        <v>0.4000000000000002</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.01928819237651391</v>
+        <v>0.02066334991708118</v>
       </c>
       <c r="Z60" t="n">
         <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.1999999999999997</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="61">
@@ -5487,52 +5487,52 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>85.61559763089305</v>
+        <v>85.82036484245427</v>
       </c>
       <c r="H61" t="n">
-        <v>69.51920562770563</v>
+        <v>70.21333333333337</v>
       </c>
       <c r="I61" t="n">
-        <v>93.98360937950935</v>
+        <v>94.32000000000004</v>
       </c>
       <c r="J61" t="n">
-        <v>6.256631022137983</v>
+        <v>6.209718076285234</v>
       </c>
       <c r="K61" t="n">
-        <v>1.385874603174605</v>
+        <v>1.479999999999999</v>
       </c>
       <c r="L61" t="n">
-        <v>14.51239999999999</v>
+        <v>14.39333333333334</v>
       </c>
       <c r="M61" t="n">
-        <v>0.7005179670250559</v>
+        <v>0.6708457711442782</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>2.777670666420667</v>
+        <v>2.893333333333333</v>
       </c>
       <c r="P61" t="n">
-        <v>0.0863298389835702</v>
+        <v>0.08189054726368156</v>
       </c>
       <c r="Q61" t="n">
         <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>0.6003645508086685</v>
+        <v>0.7000000000000004</v>
       </c>
       <c r="S61" t="n">
-        <v>0.01293907910773581</v>
+        <v>0.01379767827529019</v>
       </c>
       <c r="T61" t="n">
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>0.2005506715506712</v>
+        <v>0.1933333333333334</v>
       </c>
       <c r="V61" t="n">
-        <v>0.001047110639353371</v>
+        <v>0.00215588723051409</v>
       </c>
       <c r="W61" t="n">
         <v>0</v>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="Y61" t="n">
-        <v>7.29684908789386e-06</v>
+        <v>0</v>
       </c>
       <c r="Z61" t="n">
         <v>0</v>
@@ -5570,67 +5570,67 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>42.75454726368153</v>
+        <v>42.82497512437804</v>
       </c>
       <c r="H62" t="n">
-        <v>24.82133333333333</v>
+        <v>25.86666666666667</v>
       </c>
       <c r="I62" t="n">
-        <v>58.09833333333331</v>
+        <v>57.99333333333335</v>
       </c>
       <c r="J62" t="n">
-        <v>31.68347368711989</v>
+        <v>31.0396351575455</v>
       </c>
       <c r="K62" t="n">
-        <v>26.63690370370377</v>
+        <v>25.77999999999999</v>
       </c>
       <c r="L62" t="n">
-        <v>36.63875295815298</v>
+        <v>35.89999999999998</v>
       </c>
       <c r="M62" t="n">
-        <v>9.819241067390315</v>
+        <v>8.698341625207288</v>
       </c>
       <c r="N62" t="n">
-        <v>5.535340359640359</v>
+        <v>4.073333333333335</v>
       </c>
       <c r="O62" t="n">
-        <v>14.70311854845731</v>
+        <v>14.15333333333333</v>
       </c>
       <c r="P62" t="n">
-        <v>2.680883720287447</v>
+        <v>2.602354892205633</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.2945999999999996</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="R62" t="n">
-        <v>6.899351888771145</v>
+        <v>6.606666666666669</v>
       </c>
       <c r="S62" t="n">
-        <v>0.8861208481402498</v>
+        <v>0.8358208955223877</v>
       </c>
       <c r="T62" t="n">
         <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>2.841626118326116</v>
+        <v>2.706666666666666</v>
       </c>
       <c r="V62" t="n">
-        <v>0.2113648424543934</v>
+        <v>0.2112106135986717</v>
       </c>
       <c r="W62" t="n">
         <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>1.020638095238095</v>
+        <v>0.9933333333333334</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.03319663586827758</v>
+        <v>0.03061359867330007</v>
       </c>
       <c r="Z62" t="n">
         <v>0</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.1999999999999996</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -5644,61 +5644,61 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>83.89800995024878</v>
+        <v>85.08643449419556</v>
       </c>
       <c r="E63" t="n">
-        <v>68.52399999999993</v>
+        <v>70.28000000000002</v>
       </c>
       <c r="F63" t="n">
-        <v>93.02399999999997</v>
+        <v>94.02666666666667</v>
       </c>
       <c r="G63" t="n">
-        <v>8.383310116086218</v>
+        <v>6.730480928689873</v>
       </c>
       <c r="H63" t="n">
-        <v>2.413199999999999</v>
+        <v>1.76</v>
       </c>
       <c r="I63" t="n">
-        <v>14.69099999999999</v>
+        <v>14.56</v>
       </c>
       <c r="J63" t="n">
-        <v>0.9776744847192573</v>
+        <v>0.763980099502486</v>
       </c>
       <c r="K63" t="n">
-        <v>0.1100492063492062</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>3.460096825396824</v>
+        <v>3.053333333333334</v>
       </c>
       <c r="M63" t="n">
-        <v>0.2185737543181127</v>
+        <v>0.1143615257048091</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>1.168842894192894</v>
+        <v>0.7866666666666671</v>
       </c>
       <c r="P63" t="n">
-        <v>0.02760368445816202</v>
+        <v>0.01339966832504146</v>
       </c>
       <c r="Q63" t="n">
         <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>0.2556628871128868</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="S63" t="n">
-        <v>0.004423815460382619</v>
+        <v>0.004179104477611933</v>
       </c>
       <c r="T63" t="n">
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>0.008666666666666666</v>
+        <v>0</v>
       </c>
       <c r="V63" t="n">
-        <v>0.0004895421713371429</v>
+        <v>0</v>
       </c>
       <c r="W63" t="n">
         <v>0</v>
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="Y63" t="n">
-        <v>9.476427386875143e-07</v>
+        <v>0</v>
       </c>
       <c r="Z63" t="n">
         <v>0</v>
@@ -5727,76 +5727,76 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1799135986732999</v>
+        <v>0.1687562189054723</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002685185185185185</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.585999999999999</v>
+        <v>0.5600000000000002</v>
       </c>
       <c r="G64" t="n">
-        <v>0.2431712768160519</v>
+        <v>0.2342620232172457</v>
       </c>
       <c r="H64" t="n">
-        <v>0.008660606060606061</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.750726406926407</v>
+        <v>0.7133333333333336</v>
       </c>
       <c r="J64" t="n">
-        <v>0.2122194670184042</v>
+        <v>0.2095190713101153</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.7586208812805495</v>
+        <v>0.7533333333333336</v>
       </c>
       <c r="M64" t="n">
-        <v>0.2019730685605369</v>
+        <v>0.192636815920397</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>0.6706309643442063</v>
+        <v>0.7200000000000003</v>
       </c>
       <c r="P64" t="n">
-        <v>0.1589573521282476</v>
+        <v>0.1562189054726367</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>0.6002500000000009</v>
+        <v>0.6</v>
       </c>
       <c r="S64" t="n">
-        <v>0.1254957630149903</v>
+        <v>0.1263018242122719</v>
       </c>
       <c r="T64" t="n">
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>0.5496000000000004</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V64" t="n">
-        <v>0.08588529969201603</v>
+        <v>0.08600331674958536</v>
       </c>
       <c r="W64" t="n">
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>0.4033333333333327</v>
+        <v>0.4000000000000002</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.02496075899721809</v>
+        <v>0.02215588723051402</v>
       </c>
       <c r="Z64" t="n">
         <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.1999999999999997</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="65">
@@ -5837,34 +5837,34 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>94.10168325041451</v>
+        <v>94.11170812603642</v>
       </c>
       <c r="N65" t="n">
-        <v>87.50533333333313</v>
+        <v>87.48000000000005</v>
       </c>
       <c r="O65" t="n">
-        <v>97.51889999999997</v>
+        <v>97.48000000000002</v>
       </c>
       <c r="P65" t="n">
-        <v>1.019955887230513</v>
+        <v>1.033963515754559</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="R65" t="n">
-        <v>3.831000000000002</v>
+        <v>3.879999999999999</v>
       </c>
       <c r="S65" t="n">
-        <v>0.02670348258706461</v>
+        <v>0.02719734660033157</v>
       </c>
       <c r="T65" t="n">
         <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>0.2499999999999996</v>
+        <v>0.2266666666666668</v>
       </c>
       <c r="V65" t="n">
-        <v>0.0008159203980099506</v>
+        <v>0.001459369817578773</v>
       </c>
       <c r="W65" t="n">
         <v>0</v>
@@ -5873,10 +5873,10 @@
         <v>0</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.0002686567164179103</v>
+        <v>0.000132669983416252</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="AA65" t="n">
         <v>0</v>
@@ -5893,76 +5893,76 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>21.63768159203971</v>
+        <v>19.95114427860691</v>
       </c>
       <c r="E66" t="n">
-        <v>12.22177777777775</v>
+        <v>10.64</v>
       </c>
       <c r="F66" t="n">
-        <v>31.79199999999998</v>
+        <v>29.46000000000001</v>
       </c>
       <c r="G66" t="n">
-        <v>25.17448386638228</v>
+        <v>24.41220563847421</v>
       </c>
       <c r="H66" t="n">
-        <v>16.28677142857143</v>
+        <v>15.75999999999999</v>
       </c>
       <c r="I66" t="n">
-        <v>33.54640432900432</v>
+        <v>31.78666666666665</v>
       </c>
       <c r="J66" t="n">
-        <v>12.36785328240949</v>
+        <v>13.03923714759535</v>
       </c>
       <c r="K66" t="n">
-        <v>9.219213694366633</v>
+        <v>9.360000000000005</v>
       </c>
       <c r="L66" t="n">
-        <v>16.17022037037038</v>
+        <v>16.39333333333332</v>
       </c>
       <c r="M66" t="n">
-        <v>6.646213313207877</v>
+        <v>7.072902155887222</v>
       </c>
       <c r="N66" t="n">
-        <v>4.416604997613994</v>
+        <v>4.286666666666667</v>
       </c>
       <c r="O66" t="n">
-        <v>8.928668707666732</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="P66" t="n">
-        <v>3.822027398113211</v>
+        <v>3.865572139303469</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.617548798423798</v>
+        <v>1.673333333333334</v>
       </c>
       <c r="R66" t="n">
-        <v>6.70342159495132</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="S66" t="n">
-        <v>2.10607031094505</v>
+        <v>2.045605306799334</v>
       </c>
       <c r="T66" t="n">
-        <v>0.5658666666666662</v>
+        <v>0.6199999999999999</v>
       </c>
       <c r="U66" t="n">
-        <v>4.13788452935953</v>
+        <v>3.926666666666666</v>
       </c>
       <c r="V66" t="n">
-        <v>0.8939378109452736</v>
+        <v>0.8980099502487556</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1454968253968255</v>
+        <v>0.1933333333333334</v>
       </c>
       <c r="X66" t="n">
-        <v>2.092250738150737</v>
+        <v>2.200000000000001</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.1629313353865596</v>
+        <v>0.1733996683250414</v>
       </c>
       <c r="Z66" t="n">
         <v>0</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.6523031746031742</v>
+        <v>0.7400000000000002</v>
       </c>
     </row>
     <row r="67">
@@ -5985,67 +5985,67 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>33.7948603648423</v>
+        <v>32.47160862354878</v>
       </c>
       <c r="H67" t="n">
-        <v>19.923</v>
+        <v>18.76666666666666</v>
       </c>
       <c r="I67" t="n">
-        <v>46.34246190476187</v>
+        <v>45.68666666666665</v>
       </c>
       <c r="J67" t="n">
-        <v>18.02618467886454</v>
+        <v>18.69280265339965</v>
       </c>
       <c r="K67" t="n">
-        <v>12.38122422762423</v>
+        <v>12.60666666666666</v>
       </c>
       <c r="L67" t="n">
-        <v>23.04515588235293</v>
+        <v>24.09333333333334</v>
       </c>
       <c r="M67" t="n">
-        <v>8.930295045769915</v>
+        <v>10.00951907131011</v>
       </c>
       <c r="N67" t="n">
-        <v>5.933274586908802</v>
+        <v>7.033333333333334</v>
       </c>
       <c r="O67" t="n">
-        <v>11.63392379028735</v>
+        <v>12.97333333333334</v>
       </c>
       <c r="P67" t="n">
-        <v>5.173246080922942</v>
+        <v>5.303449419568818</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.788119877344877</v>
+        <v>2.899999999999998</v>
       </c>
       <c r="R67" t="n">
-        <v>7.747006197816481</v>
+        <v>7.886666666666665</v>
       </c>
       <c r="S67" t="n">
-        <v>2.710908845238157</v>
+        <v>2.857810945273625</v>
       </c>
       <c r="T67" t="n">
-        <v>0.9729743145743142</v>
+        <v>1.073333333333333</v>
       </c>
       <c r="U67" t="n">
-        <v>5.106622796321326</v>
+        <v>5.066666666666666</v>
       </c>
       <c r="V67" t="n">
-        <v>1.198817867483539</v>
+        <v>1.212603648424543</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1905666666666666</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="X67" t="n">
-        <v>2.745823171926112</v>
+        <v>2.659999999999999</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.2184264708205001</v>
+        <v>0.2258706467661682</v>
       </c>
       <c r="Z67" t="n">
         <v>0</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.78202156862745</v>
+        <v>0.8000000000000004</v>
       </c>
     </row>
     <row r="68">
@@ -6068,67 +6068,67 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.6529658769643834</v>
+        <v>0.6755223880597004</v>
       </c>
       <c r="H68" t="n">
-        <v>0.02987399267399267</v>
+        <v>0.02</v>
       </c>
       <c r="I68" t="n">
-        <v>1.4792</v>
+        <v>1.519999999999999</v>
       </c>
       <c r="J68" t="n">
-        <v>1.086464298974041</v>
+        <v>1.046235489220563</v>
       </c>
       <c r="K68" t="n">
-        <v>0.1973333333333329</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="L68" t="n">
-        <v>2.214100231954722</v>
+        <v>2.186666666666668</v>
       </c>
       <c r="M68" t="n">
-        <v>0.9709051786064146</v>
+        <v>0.9421558872305134</v>
       </c>
       <c r="N68" t="n">
-        <v>0.1619803229372591</v>
+        <v>0.1933333333333334</v>
       </c>
       <c r="O68" t="n">
-        <v>2.03396982364041</v>
+        <v>2.140000000000001</v>
       </c>
       <c r="P68" t="n">
-        <v>0.8378243782060938</v>
+        <v>0.8165505804311768</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.04147899673425991</v>
+        <v>0.02</v>
       </c>
       <c r="R68" t="n">
-        <v>1.838448582703846</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="S68" t="n">
-        <v>0.6896396568329394</v>
+        <v>0.6891873963515744</v>
       </c>
       <c r="T68" t="n">
         <v>0</v>
       </c>
       <c r="U68" t="n">
-        <v>1.630821428571427</v>
+        <v>1.633333333333334</v>
       </c>
       <c r="V68" t="n">
-        <v>0.432613774230191</v>
+        <v>0.4229187396351564</v>
       </c>
       <c r="W68" t="n">
         <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>1.176279847929849</v>
+        <v>1.18</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.1029988680933953</v>
+        <v>0.09429519071310104</v>
       </c>
       <c r="Z68" t="n">
         <v>0</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.5323822510822515</v>
+        <v>0.4333333333333334</v>
       </c>
     </row>
     <row r="69">
@@ -6151,43 +6151,43 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>93.70156455816146</v>
+        <v>93.82699834162511</v>
       </c>
       <c r="H69" t="n">
-        <v>87.77297619047621</v>
+        <v>87.98</v>
       </c>
       <c r="I69" t="n">
-        <v>96.61765815295816</v>
+        <v>97.17999999999998</v>
       </c>
       <c r="J69" t="n">
-        <v>2.760805638474286</v>
+        <v>2.619502487562182</v>
       </c>
       <c r="K69" t="n">
-        <v>0.6706666666666656</v>
+        <v>0.6266666666666668</v>
       </c>
       <c r="L69" t="n">
-        <v>7.010920634920624</v>
+        <v>6.673333333333336</v>
       </c>
       <c r="M69" t="n">
-        <v>0.01722776994469845</v>
+        <v>0.01087893864013266</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>0.03916446886446887</v>
+        <v>0.04</v>
       </c>
       <c r="P69" t="n">
-        <v>0.0001603698678325541</v>
+        <v>9.950248756218869e-05</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>0.004166666666666667</v>
+        <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>2.163097555699761e-07</v>
+        <v>0</v>
       </c>
       <c r="T69" t="n">
         <v>0</v>
@@ -6234,67 +6234,67 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.0196019900497512</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="J70" t="n">
-        <v>1.126532483301607</v>
+        <v>1.138076285240464</v>
       </c>
       <c r="K70" t="n">
-        <v>0.1540943562610227</v>
+        <v>0.1733333333333334</v>
       </c>
       <c r="L70" t="n">
-        <v>2.308418110807894</v>
+        <v>2.253333333333333</v>
       </c>
       <c r="M70" t="n">
-        <v>1.014234492217072</v>
+        <v>1.035024875621889</v>
       </c>
       <c r="N70" t="n">
-        <v>0.1768484264104399</v>
+        <v>0.1933333333333334</v>
       </c>
       <c r="O70" t="n">
-        <v>2.202209609997842</v>
+        <v>2.253333333333334</v>
       </c>
       <c r="P70" t="n">
-        <v>0.8715417192674646</v>
+        <v>0.8694527363184069</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.1376367167919798</v>
+        <v>0.1533333333333334</v>
       </c>
       <c r="R70" t="n">
-        <v>1.839476012463628</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="S70" t="n">
-        <v>0.7197429122011197</v>
+        <v>0.7382421227197334</v>
       </c>
       <c r="T70" t="n">
-        <v>0.02278730158730159</v>
+        <v>0.05333333333333333</v>
       </c>
       <c r="U70" t="n">
-        <v>1.684667821067821</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4438181710495133</v>
+        <v>0.4403316749585397</v>
       </c>
       <c r="W70" t="n">
         <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>1.168107625707627</v>
+        <v>1.073333333333333</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.1143177014533174</v>
+        <v>0.1159203980099502</v>
       </c>
       <c r="Z70" t="n">
         <v>0</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.441230404562757</v>
+        <v>0.4066666666666668</v>
       </c>
     </row>
     <row r="71">
@@ -6326,58 +6326,58 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0.1451210613598671</v>
+        <v>0.2419568822553894</v>
       </c>
       <c r="K71" t="n">
-        <v>0.04266666666666667</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="L71" t="n">
-        <v>0.076</v>
+        <v>0.38</v>
       </c>
       <c r="M71" t="n">
-        <v>13.72828855721393</v>
+        <v>13.63203980099502</v>
       </c>
       <c r="N71" t="n">
-        <v>6.804666666666666</v>
+        <v>6.726666666666667</v>
       </c>
       <c r="O71" t="n">
-        <v>21.02600000000001</v>
+        <v>21</v>
       </c>
       <c r="P71" t="n">
-        <v>9.916434162520719</v>
+        <v>9.865903814262014</v>
       </c>
       <c r="Q71" t="n">
-        <v>5.038252380952381</v>
+        <v>5.02</v>
       </c>
       <c r="R71" t="n">
-        <v>15.26598333333332</v>
+        <v>15.16666666666667</v>
       </c>
       <c r="S71" t="n">
-        <v>6.781226630646679</v>
+        <v>6.617114427860682</v>
       </c>
       <c r="T71" t="n">
-        <v>3.499590476190479</v>
+        <v>3.506666666666666</v>
       </c>
       <c r="U71" t="n">
-        <v>9.935258802308796</v>
+        <v>9.806666666666667</v>
       </c>
       <c r="V71" t="n">
-        <v>3.573052490433822</v>
+        <v>3.56411276948589</v>
       </c>
       <c r="W71" t="n">
-        <v>1.743923809523809</v>
+        <v>1.746666666666666</v>
       </c>
       <c r="X71" t="n">
-        <v>5.547733300033298</v>
+        <v>5.440000000000002</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.7514532797771597</v>
+        <v>0.7490547263681581</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.04403344281362449</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="AA71" t="n">
-        <v>1.422507151182152</v>
+        <v>1.473333333333333</v>
       </c>
     </row>
     <row r="72">
@@ -6409,58 +6409,58 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>13.54119519262752</v>
+        <v>13.42089552238804</v>
       </c>
       <c r="K72" t="n">
-        <v>6.274231660931663</v>
+        <v>6.213333333333333</v>
       </c>
       <c r="L72" t="n">
-        <v>20.90084444444445</v>
+        <v>20.74</v>
       </c>
       <c r="M72" t="n">
-        <v>10.25510577181248</v>
+        <v>10.12713101160862</v>
       </c>
       <c r="N72" t="n">
-        <v>5.402822743922744</v>
+        <v>5.326666666666667</v>
       </c>
       <c r="O72" t="n">
-        <v>16.20496662252211</v>
+        <v>15.13333333333333</v>
       </c>
       <c r="P72" t="n">
-        <v>7.466501556874813</v>
+        <v>7.245505804311765</v>
       </c>
       <c r="Q72" t="n">
-        <v>3.894858557455615</v>
+        <v>4.173333333333334</v>
       </c>
       <c r="R72" t="n">
-        <v>11.12974902568136</v>
+        <v>11.07333333333333</v>
       </c>
       <c r="S72" t="n">
-        <v>4.902756435808675</v>
+        <v>5.000165837479257</v>
       </c>
       <c r="T72" t="n">
-        <v>2.732793410293416</v>
+        <v>2.686666666666666</v>
       </c>
       <c r="U72" t="n">
-        <v>7.238007328689494</v>
+        <v>7.360000000000002</v>
       </c>
       <c r="V72" t="n">
-        <v>2.589433527417845</v>
+        <v>2.637014925373127</v>
       </c>
       <c r="W72" t="n">
-        <v>1.133752503052503</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="X72" t="n">
-        <v>4.152675156379567</v>
+        <v>4.300000000000002</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.5802165795249191</v>
+        <v>0.5850082918739621</v>
       </c>
       <c r="Z72" t="n">
         <v>0</v>
       </c>
       <c r="AA72" t="n">
-        <v>1.339114682539683</v>
+        <v>1.379999999999999</v>
       </c>
     </row>
   </sheetData>
